--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_16_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_16_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1637765.633405685</v>
+        <v>1723998.864316841</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584562</v>
+        <v>6486630.972584563</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9698460073897</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>67.96895394968163</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>45.5914372470515</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>84.8062813898859</v>
+        <v>63.50388216742162</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1581,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>200.1983439946924</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>38.99416705978275</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>18.21466120005588</v>
       </c>
       <c r="H14" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>49.65707784802496</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1734,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.50388216742208</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T15" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512199</v>
       </c>
       <c r="U15" t="n">
         <v>225.8112657109832</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>118.2694521832863</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>38.9941670597832</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>87.46663583403955</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>148.317249260395</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1926,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>76.0019650891914</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1938,10 +1940,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H18" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1986,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>134.3298847280298</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>210.6681848980839</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>119.204047825177</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>401.3630714862977</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>95.45056429511361</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2172,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>63.92264786389147</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>93.13436112172582</v>
+        <v>21.69126064627761</v>
       </c>
       <c r="I21" t="n">
         <v>21.30239922246435</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
         <v>105.5870378728063</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>166.7615892084472</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>131.9265263932055</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>243.8647252276511</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>87.78543387527003</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3657483393379</v>
+        <v>135.3657483393378</v>
       </c>
       <c r="H24" t="n">
         <v>93.13436112172582</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2493,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
         <v>105.5870378728063</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>186.479368152696</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>41.17526981246098</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>210.3718522815838</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>137.9355729682851</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>49.5215374394625</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>53.76397372915823</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
-        <v>301.6186538912489</v>
+        <v>276.6551050047786</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>68.4740947641325</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246427</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>69.7145791430486</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.56817365223779</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.6062992654567</v>
+        <v>226.8786902591684</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>148.9903857293485</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3187,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>19.56817365223776</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>65.15928918313422</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3266,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>222.260691983282</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>177.214629076491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3357,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>63.92264786388973</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>134.2395953018557</v>
       </c>
     </row>
     <row r="37">
@@ -3424,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>42.42703359015189</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>160.1939070468443</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>349.9168352979211</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>246.3716518456974</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>63.50388216742162</v>
+        <v>63.50388216742027</v>
       </c>
       <c r="T39" t="n">
         <v>192.192932426668</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.13821455878798</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>17.17475835043843</v>
       </c>
     </row>
     <row r="41">
@@ -3743,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>155.4355897837212</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>203.0044800199255</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>85.22504708635493</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>93.13436112172582</v>
+        <v>21.69126064627715</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>171.8855624258952</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>247.273073036159</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,13 +3982,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>62.47180796441709</v>
       </c>
       <c r="G44" t="n">
         <v>411.6062992654567</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>119.1504392246045</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4073,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742027</v>
       </c>
       <c r="T45" t="n">
         <v>192.192932426668</v>
       </c>
       <c r="U45" t="n">
-        <v>154.368165235535</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>129.2039276449102</v>
+        <v>207.7906109651918</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1571.190062176654</v>
+        <v>2058.239649555775</v>
       </c>
       <c r="C11" t="n">
-        <v>1571.190062176654</v>
+        <v>1689.277132615363</v>
       </c>
       <c r="D11" t="n">
-        <v>1212.924363569904</v>
+        <v>1331.011434008613</v>
       </c>
       <c r="E11" t="n">
-        <v>827.1361109716597</v>
+        <v>945.2231814103686</v>
       </c>
       <c r="F11" t="n">
-        <v>827.1361109716597</v>
+        <v>534.237276620761</v>
       </c>
       <c r="G11" t="n">
-        <v>411.3721723196832</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="H11" t="n">
         <v>118.4733379687845</v>
@@ -5066,25 +5068,25 @@
         <v>2490.891446435101</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.838745326147</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="U11" t="n">
-        <v>1902.252949520225</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="V11" t="n">
-        <v>1571.190062176654</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="W11" t="n">
-        <v>1571.190062176654</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="X11" t="n">
-        <v>1571.190062176654</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="Y11" t="n">
-        <v>1571.190062176654</v>
+        <v>2444.839489619897</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>909.7854722244628</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C12" t="n">
-        <v>735.3324429433358</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D12" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F12" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G12" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
-        <v>49.81782892870201</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I12" t="n">
         <v>49.81782892870201</v>
@@ -5121,49 +5123,49 @@
         <v>234.0659274310208</v>
       </c>
       <c r="K12" t="n">
-        <v>583.0451988570721</v>
+        <v>560.634250650493</v>
       </c>
       <c r="L12" t="n">
-        <v>871.0094820397347</v>
+        <v>848.5985338331556</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.407086288406</v>
+        <v>1203.996138081827</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.619652518711</v>
+        <v>1583.208704312132</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232468</v>
+        <v>1907.894322025889</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.561036994177</v>
+        <v>2149.150088787598</v>
       </c>
       <c r="Q12" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.480498228521</v>
       </c>
       <c r="R12" t="n">
         <v>2490.891446435101</v>
       </c>
       <c r="S12" t="n">
-        <v>2405.228535940266</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T12" t="n">
-        <v>2211.094260761814</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U12" t="n">
-        <v>1983.002073174962</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V12" t="n">
-        <v>1747.849964943219</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W12" t="n">
-        <v>1493.612608215017</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X12" t="n">
-        <v>1285.761108009485</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y12" t="n">
-        <v>1078.000809244531</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.81782892870201</v>
+        <v>1087.315231116727</v>
       </c>
       <c r="C13" t="n">
-        <v>49.81782892870201</v>
+        <v>918.37904818882</v>
       </c>
       <c r="D13" t="n">
-        <v>49.81782892870201</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E13" t="n">
-        <v>49.81782892870201</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F13" t="n">
-        <v>49.81782892870201</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G13" t="n">
-        <v>49.81782892870201</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H13" t="n">
-        <v>49.81782892870201</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I13" t="n">
         <v>49.81782892870201</v>
@@ -5227,22 +5229,22 @@
         <v>1308.351743482101</v>
       </c>
       <c r="T13" t="n">
-        <v>1085.259822331916</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="U13" t="n">
-        <v>796.1400366611377</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="V13" t="n">
-        <v>541.4555484552509</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="W13" t="n">
-        <v>252.0383784182903</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="X13" t="n">
-        <v>49.81782892870201</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.81782892870201</v>
+        <v>1268.963695946966</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1184.590222112533</v>
+        <v>68.21647660552611</v>
       </c>
       <c r="C14" t="n">
-        <v>815.6277051721215</v>
+        <v>68.21647660552611</v>
       </c>
       <c r="D14" t="n">
-        <v>815.6277051721215</v>
+        <v>68.21647660552611</v>
       </c>
       <c r="E14" t="n">
-        <v>815.6277051721215</v>
+        <v>68.21647660552611</v>
       </c>
       <c r="F14" t="n">
-        <v>404.641800382514</v>
+        <v>68.21647660552611</v>
       </c>
       <c r="G14" t="n">
-        <v>404.641800382514</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H14" t="n">
-        <v>99.97649342165653</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819839</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799494</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549159</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M14" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837424</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326147</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U14" t="n">
-        <v>1902.252949520226</v>
+        <v>1902.252949520224</v>
       </c>
       <c r="V14" t="n">
-        <v>1571.190062176655</v>
+        <v>1571.190062176654</v>
       </c>
       <c r="W14" t="n">
-        <v>1571.190062176655</v>
+        <v>1218.421406906539</v>
       </c>
       <c r="X14" t="n">
-        <v>1571.190062176655</v>
+        <v>844.9556486454596</v>
       </c>
       <c r="Y14" t="n">
-        <v>1571.190062176655</v>
+        <v>454.8163166696479</v>
       </c>
     </row>
     <row r="15">
@@ -5340,49 +5342,49 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G15" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K15" t="n">
-        <v>288.9454078621916</v>
+        <v>413.7755328491963</v>
       </c>
       <c r="L15" t="n">
-        <v>905.441040854879</v>
+        <v>701.7398160318589</v>
       </c>
       <c r="M15" t="n">
-        <v>1260.838645103551</v>
+        <v>1174.689586177934</v>
       </c>
       <c r="N15" t="n">
-        <v>1640.051211333856</v>
+        <v>1791.185219170621</v>
       </c>
       <c r="O15" t="n">
-        <v>1964.736829047613</v>
+        <v>2115.870836884379</v>
       </c>
       <c r="P15" t="n">
-        <v>2205.992595809322</v>
+        <v>2357.126603646088</v>
       </c>
       <c r="Q15" t="n">
-        <v>2468.480498228522</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T15" t="n">
         <v>2232.611835734</v>
@@ -5431,10 +5433,10 @@
         <v>156.4714025375973</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477639</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490679</v>
@@ -5458,25 +5460,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T16" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="U16" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="V16" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="W16" t="n">
-        <v>1609.220368204927</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="X16" t="n">
-        <v>1489.756275090497</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="Y16" t="n">
         <v>1268.963695946966</v>
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1730.825848109899</v>
+        <v>1878.485508824573</v>
       </c>
       <c r="C17" t="n">
-        <v>1361.863331169487</v>
+        <v>1509.522991884162</v>
       </c>
       <c r="D17" t="n">
-        <v>1003.597632562737</v>
+        <v>1151.257293277411</v>
       </c>
       <c r="E17" t="n">
-        <v>617.8093799644926</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="F17" t="n">
-        <v>206.823475174885</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G17" t="n">
-        <v>118.4733379687844</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687844</v>
+        <v>49.817828928702</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870201</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819841</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799497</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549161</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N17" t="n">
         <v>1613.248129085908</v>
@@ -5534,31 +5536,31 @@
         <v>2299.34732796285</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S17" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.891446435101</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U17" t="n">
-        <v>2490.891446435101</v>
+        <v>2028.300912117902</v>
       </c>
       <c r="V17" t="n">
-        <v>2490.891446435101</v>
+        <v>1878.485508824573</v>
       </c>
       <c r="W17" t="n">
-        <v>2490.891446435101</v>
+        <v>1878.485508824573</v>
       </c>
       <c r="X17" t="n">
-        <v>2117.425688174021</v>
+        <v>1878.485508824573</v>
       </c>
       <c r="Y17" t="n">
-        <v>2117.425688174021</v>
+        <v>1878.485508824573</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416516</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605246</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D18" t="n">
         <v>607.9156082542706</v>
@@ -5589,25 +5591,25 @@
         <v>71.33540390088822</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870201</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J18" t="n">
-        <v>234.0659274310208</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K18" t="n">
-        <v>560.6342506504925</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L18" t="n">
-        <v>848.5985338331552</v>
+        <v>576.9096910448541</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.996138081827</v>
+        <v>932.3072952935256</v>
       </c>
       <c r="N18" t="n">
-        <v>1583.208704312132</v>
+        <v>1548.802928286213</v>
       </c>
       <c r="O18" t="n">
-        <v>1907.894322025889</v>
+        <v>1873.48854599997</v>
       </c>
       <c r="P18" t="n">
         <v>2149.150088787598</v>
@@ -5616,7 +5618,7 @@
         <v>2468.480498228521</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S18" t="n">
         <v>2354.581362957455</v>
@@ -5625,19 +5627,19 @@
         <v>2160.447087779002</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W18" t="n">
         <v>1442.965435232206</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026674</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.35363626172</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>366.8057940872854</v>
+        <v>831.6867069089295</v>
       </c>
       <c r="C19" t="n">
-        <v>366.8057940872854</v>
+        <v>662.7505239810226</v>
       </c>
       <c r="D19" t="n">
-        <v>366.8057940872854</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="E19" t="n">
-        <v>366.8057940872854</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F19" t="n">
-        <v>366.8057940872854</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G19" t="n">
-        <v>198.792779527604</v>
+        <v>49.817828928702</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870201</v>
+        <v>49.817828928702</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870201</v>
+        <v>49.817828928702</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K19" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N19" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O19" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P19" t="n">
         <v>1557.066378230431</v>
@@ -5701,22 +5703,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>1386.128447054743</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U19" t="n">
-        <v>1097.008661383964</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="V19" t="n">
-        <v>884.2125150222635</v>
+        <v>1354.53587999904</v>
       </c>
       <c r="W19" t="n">
-        <v>594.7953449853028</v>
+        <v>1354.53587999904</v>
       </c>
       <c r="X19" t="n">
-        <v>366.8057940872854</v>
+        <v>1234.127750882699</v>
       </c>
       <c r="Y19" t="n">
-        <v>366.8057940872854</v>
+        <v>1013.335171739169</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1331.011434008613</v>
+        <v>1252.009230242107</v>
       </c>
       <c r="C20" t="n">
-        <v>1331.011434008613</v>
+        <v>1252.009230242107</v>
       </c>
       <c r="D20" t="n">
-        <v>1331.011434008613</v>
+        <v>1252.009230242107</v>
       </c>
       <c r="E20" t="n">
-        <v>945.2231814103686</v>
+        <v>866.2209776438629</v>
       </c>
       <c r="F20" t="n">
-        <v>534.237276620761</v>
+        <v>455.2350728542553</v>
       </c>
       <c r="G20" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H20" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870203</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799489</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549154</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N20" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q20" t="n">
         <v>2474.446703561747</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837425</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T20" t="n">
-        <v>2268.428772428219</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U20" t="n">
-        <v>2014.842976622298</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="V20" t="n">
-        <v>1683.780089278727</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="W20" t="n">
-        <v>1331.011434008613</v>
+        <v>2012.074828567309</v>
       </c>
       <c r="X20" t="n">
-        <v>1331.011434008613</v>
+        <v>1638.609070306229</v>
       </c>
       <c r="Y20" t="n">
-        <v>1331.011434008613</v>
+        <v>1638.609070306229</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416525</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605255</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992742</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E21" t="n">
-        <v>376.5134052938187</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F21" t="n">
-        <v>229.9788473207037</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4105161450557</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H21" t="n">
-        <v>71.33540390088824</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870203</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J21" t="n">
-        <v>234.0659274310208</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K21" t="n">
-        <v>560.6342506504934</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L21" t="n">
-        <v>848.5985338331561</v>
+        <v>576.9096910448541</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.996138081828</v>
+        <v>932.3072952935257</v>
       </c>
       <c r="N21" t="n">
-        <v>1583.208704312133</v>
+        <v>1548.802928286213</v>
       </c>
       <c r="O21" t="n">
-        <v>1907.89432202589</v>
+        <v>1873.48854599997</v>
       </c>
       <c r="P21" t="n">
-        <v>2149.150088787599</v>
+        <v>2357.126603646088</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.480498228522</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957456</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779003</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960409</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232207</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261721</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.4714025375973</v>
+        <v>1334.007378864583</v>
       </c>
       <c r="C22" t="n">
-        <v>156.4714025375973</v>
+        <v>1334.007378864583</v>
       </c>
       <c r="D22" t="n">
-        <v>156.4714025375973</v>
+        <v>1334.007378864583</v>
       </c>
       <c r="E22" t="n">
-        <v>156.4714025375973</v>
+        <v>1334.007378864583</v>
       </c>
       <c r="F22" t="n">
-        <v>156.4714025375973</v>
+        <v>1187.117431366672</v>
       </c>
       <c r="G22" t="n">
-        <v>156.4714025375973</v>
+        <v>1187.117431366672</v>
       </c>
       <c r="H22" t="n">
-        <v>156.4714025375973</v>
+        <v>1038.14248076777</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870203</v>
+        <v>931.488907158875</v>
       </c>
       <c r="J22" t="n">
-        <v>73.44728005477639</v>
+        <v>955.1183582849494</v>
       </c>
       <c r="K22" t="n">
-        <v>242.1145636490679</v>
+        <v>1123.785641879241</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394357</v>
+        <v>1395.148129369609</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642502</v>
+        <v>1691.650947694423</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.867129907539</v>
+        <v>1986.538208137712</v>
       </c>
       <c r="O22" t="n">
-        <v>1361.226948298603</v>
+        <v>2242.898026528776</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.066378230431</v>
+        <v>2438.737456460604</v>
       </c>
       <c r="Q22" t="n">
-        <v>1609.220368204927</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R22" t="n">
-        <v>1609.220368204927</v>
+        <v>2387.114261342225</v>
       </c>
       <c r="S22" t="n">
-        <v>1440.774318499425</v>
+        <v>2387.114261342225</v>
       </c>
       <c r="T22" t="n">
-        <v>1217.68239734924</v>
+        <v>2387.114261342225</v>
       </c>
       <c r="U22" t="n">
-        <v>928.5626116784621</v>
+        <v>2387.114261342225</v>
       </c>
       <c r="V22" t="n">
-        <v>673.8781234725752</v>
+        <v>2253.85514377333</v>
       </c>
       <c r="W22" t="n">
-        <v>384.4609534356147</v>
+        <v>1964.43797373637</v>
       </c>
       <c r="X22" t="n">
-        <v>156.4714025375973</v>
+        <v>1736.448422838352</v>
       </c>
       <c r="Y22" t="n">
-        <v>156.4714025375973</v>
+        <v>1515.655843694822</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1821.620957102437</v>
+        <v>1151.839610435069</v>
       </c>
       <c r="C23" t="n">
-        <v>1452.658440162025</v>
+        <v>782.8770934946576</v>
       </c>
       <c r="D23" t="n">
-        <v>1094.392741555275</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="E23" t="n">
-        <v>708.6044889570305</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="F23" t="n">
-        <v>297.618584167423</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="G23" t="n">
-        <v>297.618584167423</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696726</v>
@@ -5990,25 +5992,25 @@
         <v>182.6484035402487</v>
       </c>
       <c r="K23" t="n">
-        <v>430.2582499382141</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3419214131807</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N23" t="n">
-        <v>1614.720879044173</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O23" t="n">
-        <v>2003.50382727579</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P23" t="n">
-        <v>2307.92557020186</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800757</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
@@ -6020,19 +6022,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U23" t="n">
-        <v>2564.528944348363</v>
+        <v>2310.943148542442</v>
       </c>
       <c r="V23" t="n">
-        <v>2564.528944348363</v>
+        <v>1979.880261198871</v>
       </c>
       <c r="W23" t="n">
-        <v>2211.760289078249</v>
+        <v>1627.111605928757</v>
       </c>
       <c r="X23" t="n">
-        <v>2211.760289078249</v>
+        <v>1538.439450499191</v>
       </c>
       <c r="Y23" t="n">
-        <v>1821.620957102437</v>
+        <v>1538.439450499191</v>
       </c>
     </row>
     <row r="24">
@@ -6048,19 +6050,19 @@
         <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G24" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696726</v>
@@ -6069,22 +6071,22 @@
         <v>110.7085524022813</v>
       </c>
       <c r="K24" t="n">
-        <v>290.4181578204568</v>
+        <v>552.2387424629095</v>
       </c>
       <c r="L24" t="n">
-        <v>925.1390715466766</v>
+        <v>1152.623494811488</v>
       </c>
       <c r="M24" t="n">
-        <v>1280.536675795348</v>
+        <v>1508.021099060159</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.749242025653</v>
+        <v>1887.233665290464</v>
       </c>
       <c r="O24" t="n">
-        <v>1984.434859739411</v>
+        <v>2211.919283004221</v>
       </c>
       <c r="P24" t="n">
-        <v>2245.19853490744</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q24" t="n">
         <v>2564.528944348363</v>
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1893.648856661261</v>
+        <v>1892.507167847828</v>
       </c>
       <c r="C25" t="n">
-        <v>1724.712673733354</v>
+        <v>1723.570984919921</v>
       </c>
       <c r="D25" t="n">
-        <v>1574.596034321018</v>
+        <v>1723.570984919921</v>
       </c>
       <c r="E25" t="n">
-        <v>1426.682940738625</v>
+        <v>1575.657891337527</v>
       </c>
       <c r="F25" t="n">
-        <v>1279.792993240715</v>
+        <v>1428.767943839617</v>
       </c>
       <c r="G25" t="n">
-        <v>1111.779978681033</v>
+        <v>1260.754929279936</v>
       </c>
       <c r="H25" t="n">
-        <v>1111.779978681033</v>
+        <v>1111.779978681034</v>
       </c>
       <c r="I25" t="n">
         <v>1005.126405072138</v>
       </c>
       <c r="J25" t="n">
-        <v>1028.755856198212</v>
+        <v>1028.755856198213</v>
       </c>
       <c r="K25" t="n">
         <v>1197.423139792504</v>
@@ -6154,13 +6156,13 @@
         <v>1468.785627282872</v>
       </c>
       <c r="M25" t="n">
-        <v>1765.288445607686</v>
+        <v>1765.288445607687</v>
       </c>
       <c r="N25" t="n">
-        <v>2060.175706050974</v>
+        <v>2060.175706050975</v>
       </c>
       <c r="O25" t="n">
-        <v>2316.535524442038</v>
+        <v>2316.535524442039</v>
       </c>
       <c r="P25" t="n">
         <v>2512.374954373867</v>
@@ -6169,28 +6171,28 @@
         <v>2564.528944348363</v>
       </c>
       <c r="R25" t="n">
-        <v>2460.751759255488</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.660319625537</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T25" t="n">
-        <v>2075.2973214915</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U25" t="n">
-        <v>2075.2973214915</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V25" t="n">
-        <v>2075.2973214915</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W25" t="n">
-        <v>2075.2973214915</v>
+        <v>2522.937762719615</v>
       </c>
       <c r="X25" t="n">
-        <v>2075.2973214915</v>
+        <v>2294.948211821597</v>
       </c>
       <c r="Y25" t="n">
-        <v>2075.2973214915</v>
+        <v>2074.155632678067</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1152.730043235676</v>
+        <v>1787.78977230843</v>
       </c>
       <c r="C26" t="n">
-        <v>1152.730043235676</v>
+        <v>1418.827255368018</v>
       </c>
       <c r="D26" t="n">
-        <v>1152.730043235676</v>
+        <v>1060.561556761267</v>
       </c>
       <c r="E26" t="n">
-        <v>766.9417906374322</v>
+        <v>674.7733041630231</v>
       </c>
       <c r="F26" t="n">
-        <v>355.9558858478247</v>
+        <v>263.7873993734156</v>
       </c>
       <c r="G26" t="n">
-        <v>355.9558858478247</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H26" t="n">
         <v>51.29057888696726</v>
@@ -6224,25 +6226,25 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J26" t="n">
-        <v>254.8131514952466</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K26" t="n">
-        <v>502.4229978932121</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L26" t="n">
-        <v>846.5066693681786</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M26" t="n">
-        <v>1261.035489153922</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N26" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044173</v>
       </c>
       <c r="O26" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P26" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921115</v>
       </c>
       <c r="Q26" t="n">
         <v>2548.08420147501</v>
@@ -6251,25 +6253,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T26" t="n">
-        <v>2229.476243239409</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U26" t="n">
-        <v>1975.890447433488</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V26" t="n">
-        <v>1644.827560089917</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W26" t="n">
-        <v>1292.058904819803</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X26" t="n">
-        <v>1152.730043235676</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="Y26" t="n">
-        <v>1152.730043235676</v>
+        <v>2174.389612372551</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G27" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I27" t="n">
         <v>51.29057888696726</v>
@@ -6306,19 +6308,19 @@
         <v>110.7085524022813</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204568</v>
+        <v>290.4181578204567</v>
       </c>
       <c r="L27" t="n">
-        <v>578.3824410031195</v>
+        <v>925.1390715466765</v>
       </c>
       <c r="M27" t="n">
-        <v>1213.103354729339</v>
+        <v>1280.536675795348</v>
       </c>
       <c r="N27" t="n">
-        <v>1847.824268455559</v>
+        <v>1659.749242025653</v>
       </c>
       <c r="O27" t="n">
-        <v>2211.919283004221</v>
+        <v>1984.43485973941</v>
       </c>
       <c r="P27" t="n">
         <v>2453.17504976593</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.29057888696726</v>
+        <v>1032.156162455453</v>
       </c>
       <c r="C28" t="n">
-        <v>51.29057888696726</v>
+        <v>863.219979527546</v>
       </c>
       <c r="D28" t="n">
-        <v>51.29057888696726</v>
+        <v>713.1033401152102</v>
       </c>
       <c r="E28" t="n">
-        <v>51.29057888696726</v>
+        <v>565.1902465328171</v>
       </c>
       <c r="F28" t="n">
-        <v>51.29057888696726</v>
+        <v>418.3002990349067</v>
       </c>
       <c r="G28" t="n">
-        <v>51.29057888696726</v>
+        <v>250.2872844752253</v>
       </c>
       <c r="H28" t="n">
-        <v>51.29057888696726</v>
+        <v>101.3123338763233</v>
       </c>
       <c r="I28" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>74.92003001304163</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K28" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
         <v>514.949801097701</v>
@@ -6409,25 +6411,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>1556.386073992325</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T28" t="n">
-        <v>1333.294152842141</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="U28" t="n">
-        <v>1044.174367171362</v>
+        <v>1321.573332492414</v>
       </c>
       <c r="V28" t="n">
-        <v>789.4898789654753</v>
+        <v>1321.573332492414</v>
       </c>
       <c r="W28" t="n">
-        <v>500.0727089285147</v>
+        <v>1032.156162455453</v>
       </c>
       <c r="X28" t="n">
-        <v>272.0831580304974</v>
+        <v>1032.156162455453</v>
       </c>
       <c r="Y28" t="n">
-        <v>51.29057888696726</v>
+        <v>1032.156162455453</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1129.985523106552</v>
+        <v>1490.558069758866</v>
       </c>
       <c r="C29" t="n">
-        <v>1129.985523106552</v>
+        <v>1490.558069758866</v>
       </c>
       <c r="D29" t="n">
-        <v>771.7198244998012</v>
+        <v>1132.292371152116</v>
       </c>
       <c r="E29" t="n">
-        <v>771.7198244998012</v>
+        <v>746.5041185538716</v>
       </c>
       <c r="F29" t="n">
-        <v>771.7198244998012</v>
+        <v>746.5041185538716</v>
       </c>
       <c r="G29" t="n">
-        <v>355.9558858478247</v>
+        <v>330.7401799018951</v>
       </c>
       <c r="H29" t="n">
         <v>51.29057888696726</v>
@@ -6464,49 +6466,49 @@
         <v>182.6484035402487</v>
       </c>
       <c r="K29" t="n">
-        <v>430.2582499382141</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L29" t="n">
-        <v>781.4474136939255</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M29" t="n">
-        <v>1195.976233479669</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N29" t="n">
-        <v>1621.826371324918</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O29" t="n">
-        <v>2010.609319556535</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P29" t="n">
-        <v>2307.92557020186</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q29" t="n">
-        <v>2483.024945800757</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2229.476243239409</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U29" t="n">
-        <v>1975.890447433488</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V29" t="n">
-        <v>1906.724695146485</v>
+        <v>2233.466057004792</v>
       </c>
       <c r="W29" t="n">
-        <v>1906.724695146485</v>
+        <v>1880.697401734678</v>
       </c>
       <c r="X29" t="n">
-        <v>1906.724695146485</v>
+        <v>1880.697401734678</v>
       </c>
       <c r="Y29" t="n">
-        <v>1516.585363170673</v>
+        <v>1490.558069758866</v>
       </c>
     </row>
     <row r="30">
@@ -6522,46 +6524,46 @@
         <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033211</v>
+        <v>166.8832661033209</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915339</v>
       </c>
       <c r="I30" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>235.5386773892861</v>
+        <v>127.7070010306074</v>
       </c>
       <c r="K30" t="n">
-        <v>677.0688674499144</v>
+        <v>307.4166064487828</v>
       </c>
       <c r="L30" t="n">
-        <v>965.033150632577</v>
+        <v>595.3808896314454</v>
       </c>
       <c r="M30" t="n">
-        <v>1320.430754881249</v>
+        <v>1230.101803357665</v>
       </c>
       <c r="N30" t="n">
-        <v>1699.643321111554</v>
+        <v>1864.822717083885</v>
       </c>
       <c r="O30" t="n">
-        <v>2024.328938825311</v>
+        <v>2189.508334797642</v>
       </c>
       <c r="P30" t="n">
-        <v>2265.58470558702</v>
+        <v>2430.764101559351</v>
       </c>
       <c r="Q30" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>219.3035934466487</v>
+        <v>418.7159326083736</v>
       </c>
       <c r="C31" t="n">
-        <v>219.3035934466487</v>
+        <v>418.7159326083736</v>
       </c>
       <c r="D31" t="n">
-        <v>219.3035934466487</v>
+        <v>268.5992931960378</v>
       </c>
       <c r="E31" t="n">
-        <v>219.3035934466487</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="F31" t="n">
-        <v>219.3035934466487</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G31" t="n">
         <v>51.29057888696726</v>
@@ -6619,10 +6621,10 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304163</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K31" t="n">
-        <v>243.5873136073332</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
         <v>514.949801097701</v>
@@ -6643,28 +6645,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R31" t="n">
-        <v>1590.927286191235</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S31" t="n">
-        <v>1393.835846561283</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T31" t="n">
-        <v>1393.835846561283</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U31" t="n">
-        <v>1393.835846561283</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V31" t="n">
-        <v>1139.151358355396</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="W31" t="n">
-        <v>849.7341883184358</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="X31" t="n">
-        <v>621.7446374204185</v>
+        <v>418.7159326083736</v>
       </c>
       <c r="Y31" t="n">
-        <v>400.9520582768884</v>
+        <v>418.7159326083736</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1263.828674926796</v>
+        <v>1804.463346023161</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.828674926796</v>
+        <v>1435.50082908275</v>
       </c>
       <c r="D32" t="n">
-        <v>1263.828674926796</v>
+        <v>1077.235130475999</v>
       </c>
       <c r="E32" t="n">
-        <v>878.0404223285514</v>
+        <v>691.446877877755</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0545175389437</v>
+        <v>280.4609730881475</v>
       </c>
       <c r="G32" t="n">
         <v>51.29057888696726</v>
@@ -6698,22 +6700,22 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
-        <v>254.8131514952466</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K32" t="n">
-        <v>502.4229978932121</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L32" t="n">
-        <v>846.5066693681786</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M32" t="n">
-        <v>1261.035489153922</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N32" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044173</v>
       </c>
       <c r="O32" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P32" t="n">
         <v>2372.984825876113</v>
@@ -6731,19 +6733,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U32" t="n">
-        <v>2414.033605227809</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V32" t="n">
-        <v>2414.033605227809</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W32" t="n">
-        <v>2414.033605227809</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X32" t="n">
-        <v>2040.567846966729</v>
+        <v>2191.063186087283</v>
       </c>
       <c r="Y32" t="n">
-        <v>1650.428514990917</v>
+        <v>2191.063186087283</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.7757971549141</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C33" t="n">
-        <v>758.3227678737871</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G33" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033211</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
@@ -6780,16 +6782,16 @@
         <v>110.7085524022813</v>
       </c>
       <c r="K33" t="n">
-        <v>290.4181578204568</v>
+        <v>290.4181578204567</v>
       </c>
       <c r="L33" t="n">
-        <v>578.3824410031195</v>
+        <v>925.1390715466765</v>
       </c>
       <c r="M33" t="n">
-        <v>1213.103354729339</v>
+        <v>1280.536675795348</v>
       </c>
       <c r="N33" t="n">
-        <v>1847.824268455559</v>
+        <v>1659.749242025653</v>
       </c>
       <c r="O33" t="n">
         <v>2189.508334797642</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>239.069425418606</v>
+        <v>1389.996691233729</v>
       </c>
       <c r="C34" t="n">
-        <v>239.069425418606</v>
+        <v>1221.060508305822</v>
       </c>
       <c r="D34" t="n">
-        <v>219.3035934466487</v>
+        <v>1070.943868893486</v>
       </c>
       <c r="E34" t="n">
-        <v>219.3035934466487</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="F34" t="n">
-        <v>219.3035934466487</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="G34" t="n">
-        <v>51.29057888696726</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="H34" t="n">
-        <v>51.29057888696726</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="I34" t="n">
-        <v>51.29057888696726</v>
+        <v>1005.126405072138</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304163</v>
+        <v>1028.755856198213</v>
       </c>
       <c r="K34" t="n">
-        <v>243.5873136073332</v>
+        <v>1197.423139792504</v>
       </c>
       <c r="L34" t="n">
-        <v>514.949801097701</v>
+        <v>1468.785627282872</v>
       </c>
       <c r="M34" t="n">
-        <v>811.4526194225155</v>
+        <v>1765.288445607687</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.339879865804</v>
+        <v>2060.175706050975</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.699698256868</v>
+        <v>2316.535524442039</v>
       </c>
       <c r="P34" t="n">
-        <v>1558.539128188696</v>
+        <v>2512.374954373867</v>
       </c>
       <c r="Q34" t="n">
-        <v>1610.693118163192</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R34" t="n">
-        <v>1610.693118163192</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.601678533241</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T34" t="n">
-        <v>1413.601678533241</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U34" t="n">
-        <v>1413.601678533241</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V34" t="n">
-        <v>1158.917190327354</v>
+        <v>2309.844456142476</v>
       </c>
       <c r="W34" t="n">
-        <v>869.5000202903932</v>
+        <v>2020.427286105516</v>
       </c>
       <c r="X34" t="n">
-        <v>641.5104693923759</v>
+        <v>1792.437735207498</v>
       </c>
       <c r="Y34" t="n">
-        <v>420.7178902488457</v>
+        <v>1571.645156063968</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.286930536138</v>
+        <v>487.4358549091962</v>
       </c>
       <c r="C35" t="n">
-        <v>1925.286930536138</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="D35" t="n">
-        <v>1567.021231929388</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="E35" t="n">
-        <v>1181.232979331143</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="F35" t="n">
-        <v>770.247074541536</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="G35" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I35" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L35" t="n">
         <v>772.869171454915</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N35" t="n">
         <v>1613.248129085907</v>
@@ -6956,31 +6958,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S35" t="n">
-        <v>2490.8914464351</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T35" t="n">
-        <v>2490.8914464351</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U35" t="n">
-        <v>2490.8914464351</v>
+        <v>1931.332995848083</v>
       </c>
       <c r="V35" t="n">
-        <v>2490.8914464351</v>
+        <v>1600.270108504512</v>
       </c>
       <c r="W35" t="n">
-        <v>2490.8914464351</v>
+        <v>1247.501453234398</v>
       </c>
       <c r="X35" t="n">
-        <v>2490.8914464351</v>
+        <v>874.035694973318</v>
       </c>
       <c r="Y35" t="n">
-        <v>2311.88677060026</v>
+        <v>874.035694973318</v>
       </c>
     </row>
     <row r="36">
@@ -6990,55 +6992,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
-        <v>376.5134052938169</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F36" t="n">
-        <v>229.9788473207019</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G36" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I36" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J36" t="n">
-        <v>234.0659274310208</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K36" t="n">
-        <v>413.7755328491963</v>
+        <v>453.3326245554446</v>
       </c>
       <c r="L36" t="n">
-        <v>701.7398160318589</v>
+        <v>741.2969077381072</v>
       </c>
       <c r="M36" t="n">
-        <v>1057.137420280531</v>
+        <v>1096.694511986779</v>
       </c>
       <c r="N36" t="n">
-        <v>1436.349986510836</v>
+        <v>1475.907078217084</v>
       </c>
       <c r="O36" t="n">
-        <v>1761.035604224593</v>
+        <v>1800.592695930841</v>
       </c>
       <c r="P36" t="n">
-        <v>2149.150088787597</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q36" t="n">
         <v>2468.48049822852</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S36" t="n">
         <v>2354.581362957454</v>
@@ -7047,7 +7049,7 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V36" t="n">
         <v>1697.202791960407</v>
@@ -7056,10 +7058,10 @@
         <v>1442.965435232205</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026673</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.353636261719</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="37">
@@ -7069,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.6734184137039</v>
+        <v>937.1985917043911</v>
       </c>
       <c r="C37" t="n">
-        <v>92.6734184137039</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="D37" t="n">
-        <v>92.6734184137039</v>
+        <v>768.2624087764842</v>
       </c>
       <c r="E37" t="n">
-        <v>92.6734184137039</v>
+        <v>620.3493151940911</v>
       </c>
       <c r="F37" t="n">
-        <v>92.6734184137039</v>
+        <v>473.4593676961807</v>
       </c>
       <c r="G37" t="n">
-        <v>92.6734184137039</v>
+        <v>305.4463531364993</v>
       </c>
       <c r="H37" t="n">
-        <v>92.6734184137039</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I37" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N37" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O37" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P37" t="n">
         <v>1557.066378230431</v>
@@ -7117,28 +7119,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R37" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1308.351743482101</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T37" t="n">
-        <v>1085.259822331916</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U37" t="n">
-        <v>796.1400366611382</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="V37" t="n">
-        <v>541.4555484552513</v>
+        <v>1447.408340884882</v>
       </c>
       <c r="W37" t="n">
-        <v>541.4555484552513</v>
+        <v>1157.991170847921</v>
       </c>
       <c r="X37" t="n">
-        <v>313.465997557234</v>
+        <v>1157.991170847921</v>
       </c>
       <c r="Y37" t="n">
-        <v>92.6734184137039</v>
+        <v>937.1985917043911</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>403.2691777144809</v>
+        <v>1884.536995359064</v>
       </c>
       <c r="C38" t="n">
-        <v>49.81782892870201</v>
+        <v>1884.536995359064</v>
       </c>
       <c r="D38" t="n">
-        <v>49.81782892870201</v>
+        <v>1635.67674096947</v>
       </c>
       <c r="E38" t="n">
-        <v>49.81782892870201</v>
+        <v>1249.888488371226</v>
       </c>
       <c r="F38" t="n">
-        <v>49.81782892870201</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870201</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549153</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M38" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U38" t="n">
-        <v>2237.305650629179</v>
+        <v>2237.305650629178</v>
       </c>
       <c r="V38" t="n">
-        <v>1906.242763285608</v>
+        <v>2237.305650629178</v>
       </c>
       <c r="W38" t="n">
-        <v>1553.474108015494</v>
+        <v>1884.536995359064</v>
       </c>
       <c r="X38" t="n">
-        <v>1180.008349754414</v>
+        <v>1884.536995359064</v>
       </c>
       <c r="Y38" t="n">
-        <v>789.8690177786027</v>
+        <v>1884.536995359064</v>
       </c>
     </row>
     <row r="39">
@@ -7245,37 +7247,37 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>71.33540390088822</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J39" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K39" t="n">
-        <v>560.6342506504925</v>
+        <v>413.7755328491961</v>
       </c>
       <c r="L39" t="n">
-        <v>848.5985338331552</v>
+        <v>701.7398160318587</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.996138081827</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N39" t="n">
-        <v>1583.208704312132</v>
+        <v>1673.633053273217</v>
       </c>
       <c r="O39" t="n">
-        <v>1907.894322025889</v>
+        <v>1998.318670986974</v>
       </c>
       <c r="P39" t="n">
-        <v>2149.150088787598</v>
+        <v>2239.574437748684</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S39" t="n">
         <v>2426.746110912452</v>
@@ -7306,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>439.585744838125</v>
+        <v>831.6867069089295</v>
       </c>
       <c r="C40" t="n">
-        <v>270.6495619102182</v>
+        <v>662.7505239810226</v>
       </c>
       <c r="D40" t="n">
-        <v>270.6495619102182</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="E40" t="n">
-        <v>270.6495619102182</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F40" t="n">
-        <v>270.6495619102182</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G40" t="n">
-        <v>270.6495619102182</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H40" t="n">
-        <v>121.6746113113161</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N40" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O40" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P40" t="n">
         <v>1557.066378230431</v>
@@ -7360,22 +7362,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T40" t="n">
-        <v>1386.128447054743</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="U40" t="n">
-        <v>1386.128447054743</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V40" t="n">
-        <v>1131.443958848856</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="W40" t="n">
-        <v>842.0267888118949</v>
+        <v>1030.683412497188</v>
       </c>
       <c r="X40" t="n">
-        <v>842.0267888118949</v>
+        <v>1030.683412497188</v>
       </c>
       <c r="Y40" t="n">
-        <v>621.2342096683648</v>
+        <v>1013.335171739169</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1730.825848109899</v>
+        <v>804.568598467358</v>
       </c>
       <c r="C41" t="n">
-        <v>1361.863331169487</v>
+        <v>435.6060815269462</v>
       </c>
       <c r="D41" t="n">
-        <v>1003.597632562737</v>
+        <v>435.6060815269462</v>
       </c>
       <c r="E41" t="n">
-        <v>617.8093799644926</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F41" t="n">
-        <v>206.823475174885</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549145</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S41" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T41" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U41" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="V41" t="n">
-        <v>2490.891446435101</v>
+        <v>2159.828559091528</v>
       </c>
       <c r="W41" t="n">
-        <v>2490.891446435101</v>
+        <v>1954.773528768371</v>
       </c>
       <c r="X41" t="n">
-        <v>2117.425688174021</v>
+        <v>1581.307770507291</v>
       </c>
       <c r="Y41" t="n">
-        <v>2117.425688174021</v>
+        <v>1191.16843853148</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416516</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605246</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992733</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938178</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F42" t="n">
-        <v>229.9788473207028</v>
+        <v>229.9788473207014</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8929411728695</v>
+        <v>93.24576819005705</v>
       </c>
       <c r="H42" t="n">
-        <v>49.81782892870201</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J42" t="n">
-        <v>109.2358024440161</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621916</v>
+        <v>288.9454078621914</v>
       </c>
       <c r="L42" t="n">
-        <v>905.441040854879</v>
+        <v>576.9096910448541</v>
       </c>
       <c r="M42" t="n">
-        <v>1260.838645103551</v>
+        <v>1174.689586177934</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.051211333856</v>
+        <v>1791.185219170621</v>
       </c>
       <c r="O42" t="n">
-        <v>2115.87083688438</v>
+        <v>2115.870836884378</v>
       </c>
       <c r="P42" t="n">
-        <v>2357.126603646089</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.480498228521</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232206</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.35363626172</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1246.391869216467</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C43" t="n">
-        <v>1246.391869216467</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D43" t="n">
-        <v>1246.391869216467</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E43" t="n">
-        <v>1246.391869216467</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F43" t="n">
-        <v>1099.501921718557</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G43" t="n">
-        <v>931.4889071588755</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H43" t="n">
-        <v>931.4889071588755</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I43" t="n">
-        <v>931.4889071588755</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J43" t="n">
-        <v>955.1183582849499</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K43" t="n">
-        <v>1123.785641879241</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L43" t="n">
-        <v>1395.148129369609</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M43" t="n">
-        <v>1691.650947694424</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N43" t="n">
-        <v>1986.538208137712</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O43" t="n">
-        <v>2242.898026528776</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P43" t="n">
-        <v>2438.737456460605</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q43" t="n">
-        <v>2490.891446435101</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R43" t="n">
-        <v>2387.114261342226</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S43" t="n">
-        <v>2190.022821712274</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T43" t="n">
-        <v>1966.93090056209</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="U43" t="n">
-        <v>1677.811114891312</v>
+        <v>1216.323397441274</v>
       </c>
       <c r="V43" t="n">
-        <v>1428.040334046707</v>
+        <v>961.6389092353869</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.040334046707</v>
+        <v>672.2217391984263</v>
       </c>
       <c r="X43" t="n">
-        <v>1428.040334046707</v>
+        <v>444.232188300409</v>
       </c>
       <c r="Y43" t="n">
-        <v>1428.040334046707</v>
+        <v>223.4396091568789</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1220.332537119334</v>
+        <v>1641.701072053779</v>
       </c>
       <c r="C44" t="n">
-        <v>851.3700201789227</v>
+        <v>1272.738555113367</v>
       </c>
       <c r="D44" t="n">
-        <v>851.3700201789227</v>
+        <v>914.4728565066168</v>
       </c>
       <c r="E44" t="n">
-        <v>465.5817675806785</v>
+        <v>528.6846039083725</v>
       </c>
       <c r="F44" t="n">
         <v>465.5817675806785</v>
@@ -7646,7 +7648,7 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819835</v>
       </c>
       <c r="K44" t="n">
         <v>428.7854999799488</v>
@@ -7667,31 +7669,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S44" t="n">
-        <v>2370.537467420348</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T44" t="n">
-        <v>2370.537467420348</v>
+        <v>2281.886707923822</v>
       </c>
       <c r="U44" t="n">
-        <v>2370.537467420348</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="V44" t="n">
-        <v>2370.537467420348</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="W44" t="n">
-        <v>2370.537467420348</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="X44" t="n">
-        <v>1997.071709159268</v>
+        <v>2028.300912117901</v>
       </c>
       <c r="Y44" t="n">
-        <v>1606.932377183456</v>
+        <v>2028.300912117901</v>
       </c>
     </row>
     <row r="45">
@@ -7710,52 +7712,52 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6781532488151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G45" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H45" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I45" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310208</v>
+        <v>141.5150087964427</v>
       </c>
       <c r="K45" t="n">
-        <v>560.6342506504916</v>
+        <v>583.0451988570709</v>
       </c>
       <c r="L45" t="n">
-        <v>848.5985338331543</v>
+        <v>871.0094820397335</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.996138081826</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N45" t="n">
-        <v>1583.208704312131</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O45" t="n">
-        <v>1907.894322025888</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P45" t="n">
-        <v>2149.150088787597</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q45" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.581362957454</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T45" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U45" t="n">
         <v>2004.519648147148</v>
@@ -7780,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>196.7077764266124</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="C46" t="n">
-        <v>196.7077764266124</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="D46" t="n">
-        <v>196.7077764266124</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="E46" t="n">
-        <v>196.7077764266124</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="F46" t="n">
-        <v>49.81782892870199</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="G46" t="n">
-        <v>49.81782892870199</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H46" t="n">
-        <v>49.81782892870199</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I46" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N46" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O46" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P46" t="n">
         <v>1557.066378230431</v>
@@ -7834,22 +7836,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T46" t="n">
-        <v>1478.711350381785</v>
+        <v>1399.33086217948</v>
       </c>
       <c r="U46" t="n">
-        <v>1189.591564711007</v>
+        <v>1110.211076508702</v>
       </c>
       <c r="V46" t="n">
-        <v>934.9070765051204</v>
+        <v>855.5265883028151</v>
       </c>
       <c r="W46" t="n">
-        <v>645.4899064681598</v>
+        <v>566.1094182658544</v>
       </c>
       <c r="X46" t="n">
-        <v>417.5003555701425</v>
+        <v>338.119867367837</v>
       </c>
       <c r="Y46" t="n">
-        <v>196.7077764266124</v>
+        <v>338.119867367837</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9794606140161</v>
+        <v>148.3421391932291</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>331.8498482929544</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>118.7395615125288</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.6606139765323</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>148.3421391932285</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>239.679865416548</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>34.75330911708949</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>148.3421391932294</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>239.6798654165478</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>244.8305968529382</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9644,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>72.89368480302835</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>7.177264930045453</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>350.2592227712699</v>
+        <v>315.5762314807231</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>19.70495798618197</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.88434839053377</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>72.89368480302826</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>72.89368480302818</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>350.2592227712699</v>
       </c>
       <c r="M27" t="n">
-        <v>282.1447570480284</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>258.0892398948636</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>39.80747155040893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>229.7822457220316</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.88434839053377</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,13 +10117,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>7.177264930045339</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>72.89368480302841</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>17.17015012962227</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>282.1447570480285</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>258.0892398948637</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>189.4851961403136</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.89368480302826</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10364,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>72.89368480302829</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10431,16 +10433,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>350.2592227712699</v>
       </c>
       <c r="M33" t="n">
-        <v>282.1447570480284</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>258.0892398948636</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>17.1701501296219</v>
+        <v>207.1449243012443</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>166.0476936295486</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>148.3421391932276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>148.3421391932285</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>141.3768829333162</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>331.8498482929543</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>244.8305968529377</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O42" t="n">
-        <v>152.660613976532</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184511</v>
       </c>
       <c r="K45" t="n">
-        <v>148.3421391932276</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11.64880788385915</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>340.6465014090021</v>
       </c>
     </row>
     <row r="12">
@@ -23355,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>50.14070125298298</v>
+        <v>71.44310047544725</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>25.51131139434477</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>179.5904862923121</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>393.3916380654008</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>18.31187610165664</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23622,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>71.4431004754468</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>71.44310047544816</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>220.8610019386828</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>107.4402032057508</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>179.5904862923116</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>324.1396634314171</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,19 +23785,19 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>179.4350092097399</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23814,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>71.44310047544735</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23874,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>71.44310047544766</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
         <v>105.5870378728063</v>
@@ -23941,22 +23943,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>41.46945842574408</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>106.5056075638601</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>10.24322777915899</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>111.4641268310508</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24060,10 +24062,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>71.44310047544646</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>71.4431004754482</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>28.35893602520451</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>120.2111169306225</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>57.75392866359775</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,19 +24262,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>281.945666803199</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>34.38163378598679</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
         <v>286.2285878140705</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>245.34772852413</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>201.2344469838729</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>231.795527710184</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>56.06550043334384</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>141.3565515044935</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>24.96354888647028</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>259.2781637060024</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>76.71938350352058</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
         <v>147.485201092913</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>83.17123958970822</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>184.7276090062883</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,7 +24973,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>102.0595521185137</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>129.0472993659746</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>81.27467346343495</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
         <v>147.485201092913</v>
@@ -25123,7 +25125,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
         <v>220.8610019386828</v>
@@ -25154,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>28.78924586458024</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>209.0233095795626</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25245,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>71.4431004754482</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>71.44310047544863</v>
       </c>
     </row>
     <row r="37">
@@ -25312,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>63.16000428265443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>91.94373627698369</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>15.35605647308643</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>108.3113897749855</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25518,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>71.44310047544725</v>
+        <v>71.44310047544863</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
-        <v>34.44882331401834</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>201.4098950016564</v>
       </c>
     </row>
     <row r="41">
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>256.1707094817356</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>146.2364886974875</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25719,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>50.14070125298299</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>71.44310047544869</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>7.946417756042138</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
         <v>147.485201092913</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>4.864570287669039</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>344.4042377772943</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.637043747095646</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>71.44310047544863</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>71.44310047544823</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.3328844140846</v>
@@ -26041,7 +26043,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>91.65707429377258</v>
+        <v>13.07039097349102</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>636335.8421128425</v>
+        <v>636335.8421128422</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>636335.8421128425</v>
+        <v>636335.8421128422</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>648827.0136456846</v>
+        <v>648827.0136456848</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>648827.0136456849</v>
+        <v>648827.0136456847</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>648827.0136456846</v>
+        <v>648827.0136456848</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>636335.8421128422</v>
+        <v>636335.8421128421</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>636335.8421128425</v>
+        <v>636335.8421128422</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>636335.8421128422</v>
+        <v>636335.8421128421</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698524</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698529</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="E2" t="n">
+        <v>436708.6382972323</v>
+      </c>
+      <c r="F2" t="n">
+        <v>436708.638297232</v>
+      </c>
+      <c r="G2" t="n">
         <v>436708.6382972321</v>
       </c>
-      <c r="F2" t="n">
-        <v>436708.6382972322</v>
-      </c>
-      <c r="G2" t="n">
-        <v>436708.6382972323</v>
-      </c>
       <c r="H2" t="n">
-        <v>436708.6382972322</v>
+        <v>436708.6382972318</v>
       </c>
       <c r="I2" t="n">
+        <v>443027.7805342856</v>
+      </c>
+      <c r="J2" t="n">
         <v>443027.7805342857</v>
       </c>
-      <c r="J2" t="n">
-        <v>443027.7805342852</v>
-      </c>
       <c r="K2" t="n">
-        <v>443027.7805342854</v>
+        <v>443027.7805342856</v>
       </c>
       <c r="L2" t="n">
-        <v>443027.7805342855</v>
+        <v>443027.7805342856</v>
       </c>
       <c r="M2" t="n">
-        <v>436708.6382972321</v>
+        <v>436708.638297232</v>
       </c>
       <c r="N2" t="n">
         <v>436708.6382972322</v>
       </c>
       <c r="O2" t="n">
-        <v>436708.6382972324</v>
+        <v>436708.638297232</v>
       </c>
       <c r="P2" t="n">
         <v>436708.6382972322</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648106</v>
+        <v>4895.439270648227</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26427,34 +26429,34 @@
         <v>19428.11537840986</v>
       </c>
       <c r="F4" t="n">
-        <v>19428.11537840986</v>
+        <v>19428.11537840984</v>
       </c>
       <c r="G4" t="n">
         <v>19428.11537840985</v>
       </c>
       <c r="H4" t="n">
-        <v>19428.11537840992</v>
+        <v>19428.11537840985</v>
       </c>
       <c r="I4" t="n">
-        <v>22998.66674111656</v>
+        <v>22998.66674111659</v>
       </c>
       <c r="J4" t="n">
-        <v>22998.66674111657</v>
+        <v>22998.66674111658</v>
       </c>
       <c r="K4" t="n">
-        <v>22998.66674111655</v>
+        <v>22998.66674111659</v>
       </c>
       <c r="L4" t="n">
-        <v>22998.66674111657</v>
+        <v>22998.66674111658</v>
       </c>
       <c r="M4" t="n">
         <v>19428.11537840984</v>
       </c>
       <c r="N4" t="n">
-        <v>19428.11537840985</v>
+        <v>19428.11537840984</v>
       </c>
       <c r="O4" t="n">
-        <v>19428.11537840985</v>
+        <v>19428.11537840984</v>
       </c>
       <c r="P4" t="n">
         <v>19428.11537840984</v>
@@ -26479,13 +26481,13 @@
         <v>57906.41050425675</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="H5" t="n">
-        <v>57906.41050425677</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="I5" t="n">
         <v>59025.70047253834</v>
@@ -26500,16 +26502,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425673</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129449.2361271769</v>
+        <v>129449.2361271768</v>
       </c>
       <c r="C6" t="n">
-        <v>129449.2361271769</v>
+        <v>129449.2361271765</v>
       </c>
       <c r="D6" t="n">
-        <v>129449.236127177</v>
+        <v>129449.2361271766</v>
       </c>
       <c r="E6" t="n">
-        <v>-565277.4669615586</v>
+        <v>-565277.4669615584</v>
       </c>
       <c r="F6" t="n">
         <v>359374.1124145655</v>
       </c>
       <c r="G6" t="n">
-        <v>359374.1124145656</v>
+        <v>359374.1124145655</v>
       </c>
       <c r="H6" t="n">
-        <v>359374.1124145655</v>
+        <v>359374.1124145652</v>
       </c>
       <c r="I6" t="n">
-        <v>356107.9740499827</v>
+        <v>356107.9740499824</v>
       </c>
       <c r="J6" t="n">
-        <v>361003.4133206303</v>
+        <v>361003.4133206308</v>
       </c>
       <c r="K6" t="n">
-        <v>361003.4133206305</v>
+        <v>361003.4133206307</v>
       </c>
       <c r="L6" t="n">
-        <v>361003.4133206306</v>
+        <v>361003.4133206307</v>
       </c>
       <c r="M6" t="n">
-        <v>208776.7741677066</v>
+        <v>208776.7741677065</v>
       </c>
       <c r="N6" t="n">
         <v>359374.1124145656</v>
       </c>
       <c r="O6" t="n">
-        <v>359374.1124145659</v>
+        <v>359374.1124145655</v>
       </c>
       <c r="P6" t="n">
         <v>359374.1124145656</v>
@@ -26750,34 +26752,34 @@
         <v>919.4890146074875</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
     </row>
     <row r="4">
@@ -26799,13 +26801,13 @@
         <v>622.7228616087751</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087752</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.722861608775</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087754</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="I4" t="n">
         <v>641.1322360870907</v>
@@ -26820,16 +26822,16 @@
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087748</v>
       </c>
     </row>
   </sheetData>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831539</v>
+        <v>18.40937447831584</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304592</v>
+        <v>604.3134871304591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H17" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I17" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J17" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L17" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M17" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N17" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O17" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q17" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R17" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S17" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T17" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,31 +32308,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H18" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I18" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J18" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K18" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L18" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O18" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P18" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q18" t="n">
         <v>252.4604554824181</v>
@@ -32339,13 +32341,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S18" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T18" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H19" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I19" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J19" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K19" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L19" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M19" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N19" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O19" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P19" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q19" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S19" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T19" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H20" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I20" t="n">
         <v>142.5069356207243</v>
@@ -32473,7 +32475,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L20" t="n">
         <v>583.325679086115</v>
@@ -32482,22 +32484,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O20" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q20" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R20" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T20" t="n">
         <v>16.18115843796694</v>
@@ -32552,22 +32554,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K21" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L21" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O21" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q21" t="n">
         <v>252.4604554824181</v>
@@ -32576,13 +32578,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S21" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H22" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J22" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K22" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L22" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M22" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N22" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O22" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P22" t="n">
         <v>200.5390467268526</v>
@@ -32652,16 +32654,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S22" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H23" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I23" t="n">
         <v>142.5069356207243</v>
@@ -32710,7 +32712,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L23" t="n">
         <v>583.325679086115</v>
@@ -32719,22 +32721,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O23" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q23" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R23" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T23" t="n">
         <v>16.18115843796694</v>
@@ -32789,22 +32791,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K24" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L24" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O24" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P24" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q24" t="n">
         <v>252.4604554824181</v>
@@ -32813,13 +32815,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S24" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H25" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J25" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K25" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L25" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M25" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N25" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O25" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P25" t="n">
         <v>200.5390467268526</v>
@@ -32889,16 +32891,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S25" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H26" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I26" t="n">
         <v>142.5069356207243</v>
@@ -32947,7 +32949,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L26" t="n">
         <v>583.325679086115</v>
@@ -32956,22 +32958,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O26" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q26" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R26" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T26" t="n">
         <v>16.18115843796694</v>
@@ -33026,22 +33028,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K27" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L27" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O27" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P27" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q27" t="n">
         <v>252.4604554824181</v>
@@ -33050,13 +33052,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S27" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H28" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J28" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K28" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L28" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M28" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N28" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O28" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P28" t="n">
         <v>200.5390467268526</v>
@@ -33126,16 +33128,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S28" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H29" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I29" t="n">
         <v>142.5069356207243</v>
@@ -33184,7 +33186,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L29" t="n">
         <v>583.325679086115</v>
@@ -33193,22 +33195,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O29" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q29" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R29" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T29" t="n">
         <v>16.18115843796694</v>
@@ -33263,22 +33265,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K30" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L30" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O30" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P30" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q30" t="n">
         <v>252.4604554824181</v>
@@ -33287,13 +33289,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S30" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H31" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J31" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K31" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L31" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M31" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N31" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O31" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P31" t="n">
         <v>200.5390467268526</v>
@@ -33363,16 +33365,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S31" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H32" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207243</v>
@@ -33421,7 +33423,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L32" t="n">
         <v>583.325679086115</v>
@@ -33430,22 +33432,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O32" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q32" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R32" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T32" t="n">
         <v>16.18115843796694</v>
@@ -33500,22 +33502,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K33" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L33" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O33" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q33" t="n">
         <v>252.4604554824181</v>
@@ -33524,13 +33526,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H34" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J34" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L34" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M34" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N34" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O34" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P34" t="n">
         <v>200.5390467268526</v>
@@ -33600,16 +33602,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S34" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H35" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L35" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R35" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T35" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,31 +33730,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H36" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I36" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J36" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
         <v>252.4604554824181</v>
@@ -33761,13 +33763,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H37" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K37" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L37" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M37" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N37" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P37" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q37" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H38" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L38" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R38" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T38" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,31 +33967,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H39" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I39" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J39" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
         <v>252.4604554824181</v>
@@ -33998,13 +34000,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H40" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K40" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L40" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M40" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N40" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P40" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q40" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H41" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I41" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L41" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M41" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R41" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T41" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,31 +34204,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H42" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J42" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L42" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q42" t="n">
         <v>252.4604554824181</v>
@@ -34235,13 +34237,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T42" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H43" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I43" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J43" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K43" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L43" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M43" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N43" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P43" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q43" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H44" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I44" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936373</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L44" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M44" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R44" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T44" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,31 +34441,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J45" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L45" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q45" t="n">
         <v>252.4604554824181</v>
@@ -34472,13 +34474,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T45" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H46" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I46" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J46" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K46" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L46" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M46" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N46" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P46" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q46" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T46" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>352.504314571769</v>
+        <v>329.866993150982</v>
       </c>
       <c r="L12" t="n">
         <v>290.8730133158208</v>
@@ -35510,7 +35512,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K15" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L15" t="n">
-        <v>622.7228616087752</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390624</v>
+        <v>477.7270405515912</v>
       </c>
       <c r="N15" t="n">
-        <v>383.0429961922272</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O15" t="n">
         <v>327.9652704179365</v>
@@ -35744,7 +35746,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>265.1392953729289</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R15" t="n">
         <v>22.63732142078705</v>
@@ -35884,28 +35886,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K17" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M17" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N17" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O17" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P17" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>186.1091904063827</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8669931509815</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M18" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922272</v>
+        <v>622.722861608775</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P18" t="n">
-        <v>243.6926936986961</v>
+        <v>278.4460028157856</v>
       </c>
       <c r="Q18" t="n">
         <v>322.5559691322457</v>
       </c>
       <c r="R18" t="n">
-        <v>22.63732142078705</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
@@ -36048,19 +36050,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M19" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N19" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O19" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P19" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L20" t="n">
         <v>347.5592641161277</v>
@@ -36130,19 +36132,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O20" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P20" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722651</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>186.1091904063827</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8669931509824</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L21" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N21" t="n">
-        <v>383.0429961922272</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P21" t="n">
-        <v>243.6926936986961</v>
+        <v>488.5232905516343</v>
       </c>
       <c r="Q21" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63732142078705</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
@@ -36285,7 +36287,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M22" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N22" t="n">
         <v>297.8659196396851</v>
@@ -36297,7 +36299,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L23" t="n">
         <v>347.5592641161277</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815594</v>
+        <v>491.6096643845877</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O23" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P23" t="n">
-        <v>307.4967100263336</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R23" t="n">
-        <v>82.32727126020748</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.01815506597381</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K24" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L24" t="n">
-        <v>641.1322360870907</v>
+        <v>606.4492447965439</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N24" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P24" t="n">
-        <v>263.3976516848781</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q24" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
@@ -36522,7 +36524,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M25" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N25" t="n">
         <v>297.8659196396851</v>
@@ -36534,7 +36536,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.5783561699792</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K26" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L26" t="n">
         <v>347.5592641161277</v>
@@ -36604,19 +36606,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O26" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P26" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.8680561605026</v>
+        <v>249.7617409635307</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597381</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K27" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L27" t="n">
-        <v>290.8730133158209</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="M27" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N27" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O27" t="n">
-        <v>367.7727419683454</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
-        <v>243.6926936986961</v>
+        <v>473.4749394207277</v>
       </c>
       <c r="Q27" t="n">
         <v>112.4786813963966</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
@@ -36759,7 +36761,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M28" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N28" t="n">
         <v>297.8659196396851</v>
@@ -36771,7 +36773,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L29" t="n">
-        <v>354.7365290461731</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M29" t="n">
         <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891399</v>
+        <v>503.0453391921682</v>
       </c>
       <c r="O29" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P29" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R29" t="n">
-        <v>82.32727126020748</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>186.1091904063827</v>
+        <v>77.18830519559606</v>
       </c>
       <c r="K30" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M30" t="n">
-        <v>358.9874790390624</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="N30" t="n">
-        <v>383.0429961922272</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P30" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>301.9638775367102</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
@@ -36996,7 +36998,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M31" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N31" t="n">
         <v>297.8659196396851</v>
@@ -37008,7 +37010,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>205.5783561699792</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L32" t="n">
         <v>347.5592641161277</v>
@@ -37078,19 +37080,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O32" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P32" t="n">
-        <v>300.3194450962881</v>
+        <v>373.2131298993163</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.01815506597381</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K33" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158209</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="M33" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N33" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O33" t="n">
-        <v>345.1354205475584</v>
+        <v>535.1101947191808</v>
       </c>
       <c r="P33" t="n">
         <v>243.6926936986961</v>
@@ -37169,7 +37171,7 @@
         <v>112.4786813963966</v>
       </c>
       <c r="R33" t="n">
-        <v>22.63732142078705</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
@@ -37233,7 +37235,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M34" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N34" t="n">
         <v>297.8659196396851</v>
@@ -37245,7 +37247,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815596</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O35" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P35" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.1091904063827</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K36" t="n">
-        <v>181.524853957753</v>
+        <v>347.5725475873015</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N36" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P36" t="n">
-        <v>392.0348328919237</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q36" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63732142078705</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
@@ -37470,19 +37472,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N37" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O37" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P37" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815596</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O38" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P38" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722559</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>329.8669931509815</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N39" t="n">
-        <v>383.0429961922272</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P39" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q39" t="n">
-        <v>322.5559691322457</v>
+        <v>253.8555643297128</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
@@ -37707,19 +37709,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N40" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O40" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P40" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O41" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P41" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597381</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K42" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L42" t="n">
-        <v>622.7228616087751</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390624</v>
+        <v>603.8180758919999</v>
       </c>
       <c r="N42" t="n">
-        <v>383.0429961922272</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="O42" t="n">
-        <v>480.6258843944685</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P42" t="n">
         <v>243.6926936986961</v>
@@ -37880,7 +37882,7 @@
         <v>112.4786813963966</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078705</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K43" t="n">
         <v>170.3709935295874</v>
@@ -37944,19 +37946,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N43" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O43" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P43" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669509</v>
+        <v>132.684671366951</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O44" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P44" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063827</v>
+        <v>92.62341400781887</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8669931509806</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N45" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P45" t="n">
         <v>243.6926936986961</v>
@@ -38117,7 +38119,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R45" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K46" t="n">
         <v>170.3709935295874</v>
@@ -38181,19 +38183,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N46" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O46" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_16_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1723998.864316841</v>
+        <v>1691717.46078596</v>
       </c>
     </row>
     <row r="7">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
         <v>67.96895394968163</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>45.5914372470515</v>
+        <v>223.4717545879217</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>63.50388216742162</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T12" t="n">
         <v>192.192932426668</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8112657109832</v>
+        <v>154.368165235535</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.8076527395578</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99416705978275</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>18.21466120005588</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>162.7640217781759</v>
       </c>
       <c r="U14" t="n">
         <v>251.0499378478622</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172582</v>
+        <v>21.69126064627715</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T15" t="n">
-        <v>120.7498319512199</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U15" t="n">
         <v>225.8112657109832</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>48.22463485093119</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.9941670597832</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
         <v>301.6186538912489</v>
@@ -1900,19 +1900,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>148.317249260395</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>82.11312657675221</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742073</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>134.3298847280298</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.3328844140846</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>119.204047825177</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>147.0447644239138</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>401.3630714862977</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>119.1504392246045</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>21.69126064627761</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216742073</v>
       </c>
       <c r="T21" t="n">
         <v>192.192932426668</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>123.7331540630409</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>131.9265263932055</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>223.6586292925318</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>87.78543387527003</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3657483393378</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H24" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>103.5521831758435</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2496,7 +2496,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>41.17526981246098</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>210.3718522815838</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>72.7438347615024</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H27" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>134.9469826428689</v>
+        <v>134.9469826428695</v>
       </c>
       <c r="T27" t="n">
         <v>192.192932426668</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>49.5215374394625</v>
+        <v>97.64427777534274</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
         <v>286.2285878140705</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>276.6551050047786</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>14.99218331138957</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2888,10 +2888,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H30" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246427</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>115.7731106973625</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>69.7145791430486</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>226.8786902591684</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>148.9903857293489</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H33" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>65.15928918313422</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>136.5935794498561</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>32.58608272271719</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>222.260691983282</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3398,7 +3398,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T36" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512199</v>
       </c>
       <c r="U36" t="n">
         <v>225.8112657109832</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>134.2395953018557</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3328844140846</v>
+        <v>161.5244150904819</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>105.5870378728063</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>160.1939070468443</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>246.3716518456974</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>2.986209737679044</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874107</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>63.50388216742027</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T39" t="n">
         <v>192.192932426668</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>77.22810184760129</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.17475835043843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>203.0044800199255</v>
+        <v>148.740528113343</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>21.69126064627715</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
         <v>21.30239922246436</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.9469826428689</v>
+        <v>63.50388216741982</v>
       </c>
       <c r="T42" t="n">
         <v>192.192932426668</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>171.8855624258952</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
         <v>286.2285878140705</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>76.67644688691939</v>
       </c>
     </row>
     <row r="44">
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>62.47180796441709</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>248.0809321365456</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>76.0019650891896</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.50388216742027</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T45" t="n">
         <v>192.192932426668</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
-        <v>207.7906109651918</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>127.3194712461851</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2058.239649555775</v>
+        <v>1207.86510052203</v>
       </c>
       <c r="C11" t="n">
-        <v>1689.277132615363</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.011434008613</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="E11" t="n">
-        <v>945.2231814103686</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="F11" t="n">
-        <v>534.237276620761</v>
+        <v>838.9025835816184</v>
       </c>
       <c r="G11" t="n">
-        <v>118.4733379687845</v>
+        <v>423.1386449296419</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687845</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819845</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799501</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549166</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.39799124066</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085909</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S11" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T11" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U11" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="V11" t="n">
-        <v>2490.891446435101</v>
+        <v>2159.828559091529</v>
       </c>
       <c r="W11" t="n">
-        <v>2490.891446435101</v>
+        <v>1807.059903821415</v>
       </c>
       <c r="X11" t="n">
-        <v>2490.891446435101</v>
+        <v>1433.594145560335</v>
       </c>
       <c r="Y11" t="n">
-        <v>2444.839489619897</v>
+        <v>1207.86510052203</v>
       </c>
     </row>
     <row r="12">
@@ -5117,40 +5117,40 @@
         <v>71.33540390088822</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K12" t="n">
-        <v>560.634250650493</v>
+        <v>413.7755328491962</v>
       </c>
       <c r="L12" t="n">
-        <v>848.5985338331556</v>
+        <v>701.7398160318587</v>
       </c>
       <c r="M12" t="n">
-        <v>1203.996138081827</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N12" t="n">
-        <v>1583.208704312132</v>
+        <v>1436.349986510835</v>
       </c>
       <c r="O12" t="n">
-        <v>1907.894322025889</v>
+        <v>1761.035604224592</v>
       </c>
       <c r="P12" t="n">
-        <v>2149.150088787598</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U12" t="n">
         <v>2004.519648147148</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.315231116727</v>
+        <v>813.8823534675039</v>
       </c>
       <c r="C13" t="n">
-        <v>918.37904818882</v>
+        <v>644.946170539597</v>
       </c>
       <c r="D13" t="n">
-        <v>768.2624087764842</v>
+        <v>494.8295311272612</v>
       </c>
       <c r="E13" t="n">
-        <v>620.3493151940911</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F13" t="n">
-        <v>473.4593676961807</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G13" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L13" t="n">
         <v>513.4770511394356</v>
@@ -5226,25 +5226,25 @@
         <v>1505.443183112052</v>
       </c>
       <c r="S13" t="n">
-        <v>1308.351743482101</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T13" t="n">
-        <v>1308.351743482101</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="U13" t="n">
-        <v>1308.351743482101</v>
+        <v>1216.323397441274</v>
       </c>
       <c r="V13" t="n">
-        <v>1308.351743482101</v>
+        <v>1216.323397441274</v>
       </c>
       <c r="W13" t="n">
-        <v>1308.351743482101</v>
+        <v>1216.323397441274</v>
       </c>
       <c r="X13" t="n">
-        <v>1308.351743482101</v>
+        <v>1216.323397441274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1268.963695946966</v>
+        <v>995.5308182977436</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.21647660552611</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="C14" t="n">
-        <v>68.21647660552611</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="D14" t="n">
-        <v>68.21647660552611</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="E14" t="n">
-        <v>68.21647660552611</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="F14" t="n">
-        <v>68.21647660552611</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G14" t="n">
         <v>49.81782892870199</v>
@@ -5278,16 +5278,16 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K14" t="n">
         <v>428.7854999799488</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549152</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
         <v>1613.248129085907</v>
@@ -5299,31 +5299,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326146</v>
+        <v>2200.435381031184</v>
       </c>
       <c r="U14" t="n">
-        <v>1902.252949520224</v>
+        <v>1946.849585225263</v>
       </c>
       <c r="V14" t="n">
-        <v>1571.190062176654</v>
+        <v>1615.786697881692</v>
       </c>
       <c r="W14" t="n">
-        <v>1218.421406906539</v>
+        <v>1615.786697881692</v>
       </c>
       <c r="X14" t="n">
-        <v>844.9556486454596</v>
+        <v>1242.320939620612</v>
       </c>
       <c r="Y14" t="n">
-        <v>454.8163166696479</v>
+        <v>852.1816076448004</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757</v>
+        <v>229.9788473207014</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005705</v>
       </c>
       <c r="H15" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I15" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K15" t="n">
-        <v>413.7755328491963</v>
+        <v>553.738646953179</v>
       </c>
       <c r="L15" t="n">
-        <v>701.7398160318589</v>
+        <v>841.7029301358416</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.689586177934</v>
+        <v>1197.100534384513</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.185219170621</v>
+        <v>1813.5961673772</v>
       </c>
       <c r="O15" t="n">
-        <v>2115.870836884379</v>
+        <v>2138.281785090957</v>
       </c>
       <c r="P15" t="n">
-        <v>2357.126603646088</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q15" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S15" t="n">
         <v>2354.581362957454</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.315231116727</v>
+        <v>585.595418203304</v>
       </c>
       <c r="C16" t="n">
-        <v>918.37904818882</v>
+        <v>416.6592352753971</v>
       </c>
       <c r="D16" t="n">
-        <v>768.2624087764842</v>
+        <v>266.5425958630614</v>
       </c>
       <c r="E16" t="n">
-        <v>620.3493151940911</v>
+        <v>266.5425958630614</v>
       </c>
       <c r="F16" t="n">
-        <v>473.4593676961807</v>
+        <v>266.5425958630614</v>
       </c>
       <c r="G16" t="n">
-        <v>305.4463531364993</v>
+        <v>98.52958130337996</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I16" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N16" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O16" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P16" t="n">
         <v>1557.066378230431</v>
@@ -5463,25 +5463,25 @@
         <v>1505.443183112052</v>
       </c>
       <c r="S16" t="n">
-        <v>1308.351743482101</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="T16" t="n">
-        <v>1308.351743482101</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="U16" t="n">
-        <v>1308.351743482101</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="V16" t="n">
-        <v>1308.351743482101</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="W16" t="n">
-        <v>1308.351743482101</v>
+        <v>1216.026013075091</v>
       </c>
       <c r="X16" t="n">
-        <v>1308.351743482101</v>
+        <v>988.0364621770739</v>
       </c>
       <c r="Y16" t="n">
-        <v>1268.963695946966</v>
+        <v>767.2438830335437</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1878.485508824573</v>
+        <v>1128.512773148286</v>
       </c>
       <c r="C17" t="n">
-        <v>1509.522991884162</v>
+        <v>1128.512773148286</v>
       </c>
       <c r="D17" t="n">
-        <v>1151.257293277411</v>
+        <v>770.247074541536</v>
       </c>
       <c r="E17" t="n">
-        <v>765.4690406791669</v>
+        <v>770.247074541536</v>
       </c>
       <c r="F17" t="n">
-        <v>354.4831358895594</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G17" t="n">
         <v>354.4831358895594</v>
       </c>
       <c r="H17" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I17" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819841</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K17" t="n">
-        <v>428.7854999799497</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L17" t="n">
-        <v>772.8691714549161</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.39799124066</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N17" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O17" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P17" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
         <v>2474.446703561747</v>
@@ -5548,19 +5548,19 @@
         <v>2281.886707923823</v>
       </c>
       <c r="U17" t="n">
-        <v>2028.300912117902</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="V17" t="n">
-        <v>1878.485508824573</v>
+        <v>1950.823820580252</v>
       </c>
       <c r="W17" t="n">
-        <v>1878.485508824573</v>
+        <v>1598.055165310138</v>
       </c>
       <c r="X17" t="n">
-        <v>1878.485508824573</v>
+        <v>1598.055165310138</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.485508824573</v>
+        <v>1515.112613212408</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>71.33540390088822</v>
       </c>
       <c r="I18" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J18" t="n">
         <v>109.235802444016</v>
@@ -5606,34 +5606,34 @@
         <v>932.3072952935256</v>
       </c>
       <c r="N18" t="n">
-        <v>1548.802928286213</v>
+        <v>1498.318026423663</v>
       </c>
       <c r="O18" t="n">
-        <v>1873.48854599997</v>
+        <v>1823.00364413742</v>
       </c>
       <c r="P18" t="n">
-        <v>2149.150088787598</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q18" t="n">
-        <v>2468.480498228521</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R18" t="n">
         <v>2490.8914464351</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957455</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779002</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232206</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X18" t="n">
         <v>1307.278682981671</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>831.6867069089295</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="C19" t="n">
-        <v>662.7505239810226</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="D19" t="n">
-        <v>512.6338845686869</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E19" t="n">
-        <v>364.7207909862938</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F19" t="n">
         <v>217.8308434883834</v>
       </c>
       <c r="G19" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H19" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I19" t="n">
-        <v>49.817828928702</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J19" t="n">
         <v>73.44728005477633</v>
@@ -5706,19 +5706,19 @@
         <v>1609.220368204927</v>
       </c>
       <c r="U19" t="n">
-        <v>1609.220368204927</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V19" t="n">
-        <v>1354.53587999904</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W19" t="n">
-        <v>1354.53587999904</v>
+        <v>775.9989242913009</v>
       </c>
       <c r="X19" t="n">
-        <v>1234.127750882699</v>
+        <v>548.0093733932836</v>
       </c>
       <c r="Y19" t="n">
-        <v>1013.335171739169</v>
+        <v>399.4793083186231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1252.009230242107</v>
+        <v>1220.332537119334</v>
       </c>
       <c r="C20" t="n">
-        <v>1252.009230242107</v>
+        <v>851.3700201789227</v>
       </c>
       <c r="D20" t="n">
-        <v>1252.009230242107</v>
+        <v>851.3700201789227</v>
       </c>
       <c r="E20" t="n">
-        <v>866.2209776438629</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="F20" t="n">
-        <v>455.2350728542553</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G20" t="n">
         <v>49.81782892870199</v>
@@ -5758,10 +5758,10 @@
         <v>428.7854999799487</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549147</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M20" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N20" t="n">
         <v>1613.248129085907</v>
@@ -5773,31 +5773,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R20" t="n">
         <v>2490.8914464351</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837423</v>
+        <v>2370.537467420348</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.843483837423</v>
+        <v>2370.537467420348</v>
       </c>
       <c r="U20" t="n">
-        <v>2364.843483837423</v>
+        <v>2370.537467420348</v>
       </c>
       <c r="V20" t="n">
-        <v>2364.843483837423</v>
+        <v>2370.537467420348</v>
       </c>
       <c r="W20" t="n">
-        <v>2012.074828567309</v>
+        <v>2370.537467420348</v>
       </c>
       <c r="X20" t="n">
-        <v>1638.609070306229</v>
+        <v>1997.071709159268</v>
       </c>
       <c r="Y20" t="n">
-        <v>1638.609070306229</v>
+        <v>1606.932377183456</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>859.1382992416507</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C21" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D21" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E21" t="n">
-        <v>376.5134052938169</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F21" t="n">
-        <v>229.9788473207019</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G21" t="n">
-        <v>93.2457681900575</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I21" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J21" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K21" t="n">
-        <v>288.9454078621915</v>
+        <v>531.3276987466003</v>
       </c>
       <c r="L21" t="n">
-        <v>576.9096910448541</v>
+        <v>819.2919819292629</v>
       </c>
       <c r="M21" t="n">
-        <v>932.3072952935257</v>
+        <v>1174.689586177934</v>
       </c>
       <c r="N21" t="n">
-        <v>1548.802928286213</v>
+        <v>1791.185219170622</v>
       </c>
       <c r="O21" t="n">
-        <v>1873.48854599997</v>
+        <v>2115.870836884379</v>
       </c>
       <c r="P21" t="n">
         <v>2357.126603646088</v>
@@ -5858,25 +5858,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957454</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.35490019215</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V21" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W21" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X21" t="n">
-        <v>1235.113935026673</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y21" t="n">
-        <v>1027.353636261719</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1334.007378864583</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="C22" t="n">
-        <v>1334.007378864583</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="D22" t="n">
-        <v>1334.007378864583</v>
+        <v>174.8008128307635</v>
       </c>
       <c r="E22" t="n">
-        <v>1334.007378864583</v>
+        <v>174.8008128307635</v>
       </c>
       <c r="F22" t="n">
-        <v>1187.117431366672</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G22" t="n">
-        <v>1187.117431366672</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H22" t="n">
-        <v>1038.14248076777</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I22" t="n">
-        <v>931.488907158875</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J22" t="n">
-        <v>955.1183582849494</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K22" t="n">
-        <v>1123.785641879241</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L22" t="n">
-        <v>1395.148129369609</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M22" t="n">
-        <v>1691.650947694423</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N22" t="n">
-        <v>1986.538208137712</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.898026528776</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P22" t="n">
-        <v>2438.737456460604</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q22" t="n">
-        <v>2490.8914464351</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R22" t="n">
-        <v>2387.114261342225</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S22" t="n">
-        <v>2387.114261342225</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T22" t="n">
-        <v>2387.114261342225</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U22" t="n">
-        <v>2387.114261342225</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V22" t="n">
-        <v>2253.85514377333</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W22" t="n">
-        <v>1964.43797373637</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="X22" t="n">
-        <v>1736.448422838352</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="Y22" t="n">
-        <v>1515.655843694822</v>
+        <v>324.9174522430992</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1151.839610435069</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="C23" t="n">
-        <v>782.8770934946576</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="D23" t="n">
-        <v>424.6113948879072</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="E23" t="n">
-        <v>424.6113948879072</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F23" t="n">
-        <v>424.6113948879072</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G23" t="n">
-        <v>424.6113948879072</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H23" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402487</v>
+        <v>189.7538958209951</v>
       </c>
       <c r="K23" t="n">
-        <v>430.258249938214</v>
+        <v>437.3637422189605</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3419214131804</v>
+        <v>781.4474136939268</v>
       </c>
       <c r="M23" t="n">
-        <v>1261.035489153922</v>
+        <v>1195.976233479671</v>
       </c>
       <c r="N23" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324919</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P23" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800758</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
@@ -6022,19 +6022,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U23" t="n">
-        <v>2310.943148542442</v>
+        <v>2338.61113698217</v>
       </c>
       <c r="V23" t="n">
-        <v>1979.880261198871</v>
+        <v>2007.548249638599</v>
       </c>
       <c r="W23" t="n">
-        <v>1627.111605928757</v>
+        <v>1654.779594368485</v>
       </c>
       <c r="X23" t="n">
-        <v>1538.439450499191</v>
+        <v>1654.779594368485</v>
       </c>
       <c r="Y23" t="n">
-        <v>1538.439450499191</v>
+        <v>1264.640262392673</v>
       </c>
     </row>
     <row r="24">
@@ -6050,46 +6050,46 @@
         <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
         <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339653</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G24" t="n">
         <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7085524022813</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K24" t="n">
-        <v>552.2387424629095</v>
+        <v>415.2482828074615</v>
       </c>
       <c r="L24" t="n">
-        <v>1152.623494811488</v>
+        <v>703.2125659901241</v>
       </c>
       <c r="M24" t="n">
-        <v>1508.021099060159</v>
+        <v>1058.610170238795</v>
       </c>
       <c r="N24" t="n">
-        <v>1887.233665290464</v>
+        <v>1437.8227364691</v>
       </c>
       <c r="O24" t="n">
-        <v>2211.919283004221</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P24" t="n">
-        <v>2453.17504976593</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q24" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
@@ -6104,7 +6104,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1892.507167847828</v>
+        <v>982.1344074660968</v>
       </c>
       <c r="C25" t="n">
-        <v>1723.570984919921</v>
+        <v>813.1982245381899</v>
       </c>
       <c r="D25" t="n">
-        <v>1723.570984919921</v>
+        <v>663.0815851258542</v>
       </c>
       <c r="E25" t="n">
-        <v>1575.657891337527</v>
+        <v>515.1684915434611</v>
       </c>
       <c r="F25" t="n">
-        <v>1428.767943839617</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="G25" t="n">
-        <v>1260.754929279936</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="H25" t="n">
-        <v>1111.779978681034</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I25" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J25" t="n">
-        <v>1028.755856198213</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K25" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
-        <v>1468.785627282872</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M25" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N25" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O25" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P25" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q25" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
-        <v>2564.528944348363</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S25" t="n">
-        <v>2564.528944348363</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="T25" t="n">
-        <v>2564.528944348363</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="U25" t="n">
-        <v>2564.528944348363</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="V25" t="n">
-        <v>2564.528944348363</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="W25" t="n">
-        <v>2522.937762719615</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="X25" t="n">
-        <v>2294.948211821597</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="Y25" t="n">
-        <v>2074.155632678067</v>
+        <v>1086.732572290181</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1787.78977230843</v>
+        <v>1695.572994504761</v>
       </c>
       <c r="C26" t="n">
-        <v>1418.827255368018</v>
+        <v>1695.572994504761</v>
       </c>
       <c r="D26" t="n">
-        <v>1060.561556761267</v>
+        <v>1337.30729589801</v>
       </c>
       <c r="E26" t="n">
-        <v>674.7733041630231</v>
+        <v>951.5190432997658</v>
       </c>
       <c r="F26" t="n">
-        <v>263.7873993734156</v>
+        <v>540.5331385101583</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29057888696726</v>
+        <v>124.7691998581818</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J26" t="n">
-        <v>182.6484035402487</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K26" t="n">
-        <v>430.258249938214</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L26" t="n">
-        <v>774.3419214131804</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M26" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153923</v>
       </c>
       <c r="N26" t="n">
-        <v>1614.720879044173</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O26" t="n">
-        <v>2003.503827275789</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P26" t="n">
-        <v>2300.820077921115</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="U26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="V26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="W26" t="n">
-        <v>2564.528944348363</v>
+        <v>2085.712326480572</v>
       </c>
       <c r="X26" t="n">
-        <v>2564.528944348363</v>
+        <v>2085.712326480572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2174.389612372551</v>
+        <v>1695.572994504761</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C27" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022813</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204567</v>
+        <v>495.4916328786893</v>
       </c>
       <c r="L27" t="n">
-        <v>925.1390715466765</v>
+        <v>1130.212546604909</v>
       </c>
       <c r="M27" t="n">
-        <v>1280.536675795348</v>
+        <v>1485.610150853581</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.749242025653</v>
+        <v>1864.822717083885</v>
       </c>
       <c r="O27" t="n">
-        <v>1984.43485973941</v>
+        <v>2189.508334797642</v>
       </c>
       <c r="P27" t="n">
-        <v>2453.17504976593</v>
+        <v>2430.764101559352</v>
       </c>
       <c r="Q27" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1032.156162455453</v>
+        <v>468.0508164704418</v>
       </c>
       <c r="C28" t="n">
-        <v>863.219979527546</v>
+        <v>468.0508164704418</v>
       </c>
       <c r="D28" t="n">
-        <v>713.1033401152102</v>
+        <v>317.934177058106</v>
       </c>
       <c r="E28" t="n">
-        <v>565.1902465328171</v>
+        <v>317.934177058106</v>
       </c>
       <c r="F28" t="n">
-        <v>418.3002990349067</v>
+        <v>317.934177058106</v>
       </c>
       <c r="G28" t="n">
-        <v>250.2872844752253</v>
+        <v>149.9211624984246</v>
       </c>
       <c r="H28" t="n">
-        <v>101.3123338763233</v>
+        <v>149.9211624984246</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J28" t="n">
-        <v>74.92003001304161</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K28" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M28" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N28" t="n">
         <v>1106.339879865804</v>
@@ -6414,22 +6414,22 @@
         <v>1610.693118163192</v>
       </c>
       <c r="T28" t="n">
-        <v>1610.693118163192</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U28" t="n">
-        <v>1321.573332492414</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V28" t="n">
-        <v>1321.573332492414</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.156162455453</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="X28" t="n">
-        <v>1032.156162455453</v>
+        <v>870.4918604442116</v>
       </c>
       <c r="Y28" t="n">
-        <v>1032.156162455453</v>
+        <v>649.6992813006815</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1490.558069758866</v>
+        <v>831.2390006169865</v>
       </c>
       <c r="C29" t="n">
-        <v>1490.558069758866</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="D29" t="n">
-        <v>1132.292371152116</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="E29" t="n">
-        <v>746.5041185538716</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="F29" t="n">
-        <v>746.5041185538716</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="G29" t="n">
-        <v>330.7401799018951</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402487</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K29" t="n">
-        <v>430.258249938214</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131804</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M29" t="n">
         <v>1188.870741198924</v>
@@ -6484,31 +6484,31 @@
         <v>2372.984825876113</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750687</v>
       </c>
       <c r="T29" t="n">
-        <v>2564.528944348363</v>
+        <v>2229.47624323941</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>1975.890447433488</v>
       </c>
       <c r="V29" t="n">
-        <v>2233.466057004792</v>
+        <v>1960.746827927034</v>
       </c>
       <c r="W29" t="n">
-        <v>1880.697401734678</v>
+        <v>1607.97817265692</v>
       </c>
       <c r="X29" t="n">
-        <v>1880.697401734678</v>
+        <v>1607.97817265692</v>
       </c>
       <c r="Y29" t="n">
-        <v>1490.558069758866</v>
+        <v>1217.838840681108</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C30" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339653</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033209</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915339</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J30" t="n">
-        <v>127.7070010306074</v>
+        <v>110.7085524022813</v>
       </c>
       <c r="K30" t="n">
-        <v>307.4166064487828</v>
+        <v>290.4181578204567</v>
       </c>
       <c r="L30" t="n">
-        <v>595.3808896314454</v>
+        <v>629.3688389994596</v>
       </c>
       <c r="M30" t="n">
-        <v>1230.101803357665</v>
+        <v>984.7664432481312</v>
       </c>
       <c r="N30" t="n">
-        <v>1864.822717083885</v>
+        <v>1363.979009478436</v>
       </c>
       <c r="O30" t="n">
-        <v>2189.508334797642</v>
+        <v>1688.664627192193</v>
       </c>
       <c r="P30" t="n">
-        <v>2430.764101559351</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>418.7159326083736</v>
+        <v>781.1658099972298</v>
       </c>
       <c r="C31" t="n">
-        <v>418.7159326083736</v>
+        <v>664.2232739392879</v>
       </c>
       <c r="D31" t="n">
-        <v>268.5992931960378</v>
+        <v>514.1066345269521</v>
       </c>
       <c r="E31" t="n">
-        <v>198.1805263848776</v>
+        <v>366.193540944559</v>
       </c>
       <c r="F31" t="n">
-        <v>51.29057888696726</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304161</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K31" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
-        <v>514.949801097701</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225155</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N31" t="n">
         <v>1106.339879865804</v>
@@ -6645,28 +6645,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R31" t="n">
-        <v>1610.693118163192</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.601678533241</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="T31" t="n">
-        <v>1190.509757383056</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="U31" t="n">
-        <v>901.3899717122778</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="V31" t="n">
-        <v>646.7054835063909</v>
+        <v>1252.23144486443</v>
       </c>
       <c r="W31" t="n">
-        <v>646.7054835063909</v>
+        <v>962.8142748274695</v>
       </c>
       <c r="X31" t="n">
-        <v>418.7159326083736</v>
+        <v>962.8142748274695</v>
       </c>
       <c r="Y31" t="n">
-        <v>418.7159326083736</v>
+        <v>962.8142748274695</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1804.463346023161</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="C32" t="n">
-        <v>1435.50082908275</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="D32" t="n">
-        <v>1077.235130475999</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E32" t="n">
-        <v>691.446877877755</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F32" t="n">
-        <v>280.4609730881475</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I32" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J32" t="n">
-        <v>182.6484035402487</v>
+        <v>182.6484035402486</v>
       </c>
       <c r="K32" t="n">
-        <v>430.258249938214</v>
+        <v>430.2582499382139</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3419214131804</v>
+        <v>774.3419214131802</v>
       </c>
       <c r="M32" t="n">
         <v>1188.870741198924</v>
       </c>
       <c r="N32" t="n">
-        <v>1614.720879044173</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O32" t="n">
-        <v>2003.503827275789</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P32" t="n">
         <v>2372.984825876113</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.08420147501</v>
+        <v>2548.084201475011</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
@@ -6730,22 +6730,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T32" t="n">
-        <v>2564.528944348363</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="U32" t="n">
-        <v>2564.528944348363</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="V32" t="n">
-        <v>2564.528944348363</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="W32" t="n">
-        <v>2564.528944348363</v>
+        <v>2414.033605227809</v>
       </c>
       <c r="X32" t="n">
-        <v>2191.063186087283</v>
+        <v>2040.567846966729</v>
       </c>
       <c r="Y32" t="n">
-        <v>2191.063186087283</v>
+        <v>1650.428514990917</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549145</v>
       </c>
       <c r="C33" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737875</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125361</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070805</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339656</v>
       </c>
       <c r="G33" t="n">
-        <v>166.8832661033211</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915348</v>
       </c>
       <c r="I33" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J33" t="n">
-        <v>110.7085524022813</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K33" t="n">
-        <v>290.4181578204567</v>
+        <v>415.2482828074615</v>
       </c>
       <c r="L33" t="n">
-        <v>925.1390715466765</v>
+        <v>703.2125659901241</v>
       </c>
       <c r="M33" t="n">
-        <v>1280.536675795348</v>
+        <v>1058.610170238795</v>
       </c>
       <c r="N33" t="n">
-        <v>1659.749242025653</v>
+        <v>1437.8227364691</v>
       </c>
       <c r="O33" t="n">
-        <v>2189.508334797642</v>
+        <v>1762.508354182857</v>
       </c>
       <c r="P33" t="n">
-        <v>2430.764101559351</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q33" t="n">
         <v>2542.117996141784</v>
@@ -6806,16 +6806,16 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S33" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T33" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692266</v>
       </c>
       <c r="U33" t="n">
         <v>2005.992398105413</v>
       </c>
       <c r="V33" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W33" t="n">
         <v>1516.602933145469</v>
@@ -6824,7 +6824,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y33" t="n">
-        <v>1100.991134174982</v>
+        <v>1100.991134174983</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1389.996691233729</v>
+        <v>535.1297238724659</v>
       </c>
       <c r="C34" t="n">
-        <v>1221.060508305822</v>
+        <v>366.193540944559</v>
       </c>
       <c r="D34" t="n">
-        <v>1070.943868893486</v>
+        <v>366.193540944559</v>
       </c>
       <c r="E34" t="n">
-        <v>1005.126405072138</v>
+        <v>366.193540944559</v>
       </c>
       <c r="F34" t="n">
-        <v>1005.126405072138</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G34" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="H34" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="I34" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696727</v>
       </c>
       <c r="J34" t="n">
-        <v>1028.755856198213</v>
+        <v>74.9200300130416</v>
       </c>
       <c r="K34" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
-        <v>1468.785627282872</v>
+        <v>514.9498010977009</v>
       </c>
       <c r="M34" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225153</v>
       </c>
       <c r="N34" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O34" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P34" t="n">
-        <v>2512.374954373867</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R34" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S34" t="n">
-        <v>2564.528944348363</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T34" t="n">
-        <v>2564.528944348363</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U34" t="n">
-        <v>2564.528944348363</v>
+        <v>1052.536444807444</v>
       </c>
       <c r="V34" t="n">
-        <v>2309.844456142476</v>
+        <v>1052.536444807444</v>
       </c>
       <c r="W34" t="n">
-        <v>2020.427286105516</v>
+        <v>763.1192747704832</v>
       </c>
       <c r="X34" t="n">
-        <v>1792.437735207498</v>
+        <v>535.1297238724659</v>
       </c>
       <c r="Y34" t="n">
-        <v>1571.645156063968</v>
+        <v>535.1297238724659</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>487.4358549091962</v>
+        <v>1248.469738330417</v>
       </c>
       <c r="C35" t="n">
-        <v>118.4733379687844</v>
+        <v>879.5072213900055</v>
       </c>
       <c r="D35" t="n">
-        <v>118.4733379687844</v>
+        <v>879.5072213900055</v>
       </c>
       <c r="E35" t="n">
-        <v>118.4733379687844</v>
+        <v>493.7189687917613</v>
       </c>
       <c r="F35" t="n">
-        <v>118.4733379687844</v>
+        <v>82.7330640021537</v>
       </c>
       <c r="G35" t="n">
-        <v>118.4733379687844</v>
+        <v>82.7330640021537</v>
       </c>
       <c r="H35" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I35" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L35" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O35" t="n">
         <v>2002.031077317524</v>
@@ -6958,31 +6958,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T35" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U35" t="n">
-        <v>1931.332995848083</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="V35" t="n">
-        <v>1600.270108504512</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="W35" t="n">
-        <v>1247.501453234398</v>
+        <v>2012.074828567309</v>
       </c>
       <c r="X35" t="n">
-        <v>874.035694973318</v>
+        <v>1638.609070306229</v>
       </c>
       <c r="Y35" t="n">
-        <v>874.035694973318</v>
+        <v>1248.469738330417</v>
       </c>
     </row>
     <row r="36">
@@ -7010,55 +7010,55 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H36" t="n">
-        <v>71.33540390088821</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I36" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J36" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>453.3326245554446</v>
+        <v>560.6342506504922</v>
       </c>
       <c r="L36" t="n">
-        <v>741.2969077381072</v>
+        <v>848.5985338331548</v>
       </c>
       <c r="M36" t="n">
-        <v>1096.694511986779</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N36" t="n">
-        <v>1475.907078217084</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O36" t="n">
-        <v>1800.592695930841</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P36" t="n">
-        <v>2357.126603646087</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q36" t="n">
         <v>2468.48049822852</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S36" t="n">
         <v>2354.581362957454</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y36" t="n">
         <v>1099.518384216717</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>937.1985917043911</v>
+        <v>616.6339642867141</v>
       </c>
       <c r="C37" t="n">
-        <v>768.2624087764842</v>
+        <v>616.6339642867141</v>
       </c>
       <c r="D37" t="n">
-        <v>768.2624087764842</v>
+        <v>466.5173248743783</v>
       </c>
       <c r="E37" t="n">
-        <v>620.3493151940911</v>
+        <v>466.5173248743783</v>
       </c>
       <c r="F37" t="n">
-        <v>473.4593676961807</v>
+        <v>319.627377376468</v>
       </c>
       <c r="G37" t="n">
-        <v>305.4463531364993</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H37" t="n">
         <v>156.4714025375973</v>
@@ -7095,7 +7095,7 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K37" t="n">
         <v>242.1145636490678</v>
@@ -7128,19 +7128,19 @@
         <v>1609.220368204927</v>
       </c>
       <c r="U37" t="n">
-        <v>1609.220368204927</v>
+        <v>1320.100582534149</v>
       </c>
       <c r="V37" t="n">
-        <v>1447.408340884882</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="W37" t="n">
-        <v>1157.991170847921</v>
+        <v>1065.416094328262</v>
       </c>
       <c r="X37" t="n">
-        <v>1157.991170847921</v>
+        <v>837.4265434302442</v>
       </c>
       <c r="Y37" t="n">
-        <v>937.1985917043911</v>
+        <v>616.6339642867141</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1884.536995359064</v>
+        <v>804.568598467358</v>
       </c>
       <c r="C38" t="n">
-        <v>1884.536995359064</v>
+        <v>435.6060815269462</v>
       </c>
       <c r="D38" t="n">
-        <v>1635.67674096947</v>
+        <v>435.6060815269462</v>
       </c>
       <c r="E38" t="n">
-        <v>1249.888488371226</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F38" t="n">
-        <v>838.9025835816184</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G38" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H38" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J38" t="n">
         <v>181.1756535819833</v>
@@ -7201,25 +7201,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435099</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U38" t="n">
-        <v>2237.305650629178</v>
+        <v>1902.252949520223</v>
       </c>
       <c r="V38" t="n">
-        <v>2237.305650629178</v>
+        <v>1571.190062176653</v>
       </c>
       <c r="W38" t="n">
-        <v>1884.536995359064</v>
+        <v>1568.17368870425</v>
       </c>
       <c r="X38" t="n">
-        <v>1884.536995359064</v>
+        <v>1194.70793044317</v>
       </c>
       <c r="Y38" t="n">
-        <v>1884.536995359064</v>
+        <v>804.568598467358</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992715</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6781532488152</v>
+        <v>376.513405293816</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1435952757001</v>
+        <v>229.978847320701</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4105161450557</v>
+        <v>93.24576819005659</v>
       </c>
       <c r="H39" t="n">
-        <v>71.33540390088821</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J39" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K39" t="n">
-        <v>413.7755328491961</v>
+        <v>560.6342506504913</v>
       </c>
       <c r="L39" t="n">
-        <v>701.7398160318587</v>
+        <v>848.5985338331539</v>
       </c>
       <c r="M39" t="n">
-        <v>1057.13742028053</v>
+        <v>1203.996138081825</v>
       </c>
       <c r="N39" t="n">
-        <v>1673.633053273217</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O39" t="n">
-        <v>1998.318670986974</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.574437748684</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q39" t="n">
-        <v>2490.891446435099</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R39" t="n">
         <v>2490.891446435099</v>
       </c>
       <c r="S39" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T39" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V39" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>831.6867069089295</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="C40" t="n">
-        <v>662.7505239810226</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="D40" t="n">
-        <v>512.6338845686869</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E40" t="n">
-        <v>364.7207909862938</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F40" t="n">
-        <v>217.8308434883834</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G40" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J40" t="n">
         <v>73.44728005477631</v>
@@ -7359,25 +7359,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>1609.220368204927</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T40" t="n">
-        <v>1609.220368204927</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U40" t="n">
-        <v>1320.100582534149</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V40" t="n">
-        <v>1320.100582534149</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="W40" t="n">
-        <v>1030.683412497188</v>
+        <v>355.8155635111651</v>
       </c>
       <c r="X40" t="n">
-        <v>1030.683412497188</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="Y40" t="n">
-        <v>1013.335171739169</v>
+        <v>127.8260126131477</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>804.568598467358</v>
+        <v>1245.530189310698</v>
       </c>
       <c r="C41" t="n">
-        <v>435.6060815269462</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="D41" t="n">
-        <v>435.6060815269462</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="E41" t="n">
-        <v>49.81782892870199</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870199</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J41" t="n">
         <v>181.1756535819834</v>
@@ -7426,7 +7426,7 @@
         <v>1613.248129085906</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P41" t="n">
         <v>2299.347327962849</v>
@@ -7438,25 +7438,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S41" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T41" t="n">
-        <v>2490.891446435099</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U41" t="n">
-        <v>2490.891446435099</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="V41" t="n">
-        <v>2159.828559091528</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="W41" t="n">
-        <v>1954.773528768371</v>
+        <v>2005.595787635899</v>
       </c>
       <c r="X41" t="n">
-        <v>1581.307770507291</v>
+        <v>1632.13002937482</v>
       </c>
       <c r="Y41" t="n">
-        <v>1191.16843853148</v>
+        <v>1632.13002937482</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416502</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605232</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992719</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938164</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F42" t="n">
-        <v>229.9788473207014</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G42" t="n">
-        <v>93.24576819005705</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H42" t="n">
-        <v>71.33540390088821</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J42" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K42" t="n">
-        <v>288.9454078621914</v>
+        <v>560.6342506504913</v>
       </c>
       <c r="L42" t="n">
-        <v>576.9096910448541</v>
+        <v>848.5985338331539</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.689586177934</v>
+        <v>1203.996138081825</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.185219170621</v>
+        <v>1583.20870431213</v>
       </c>
       <c r="O42" t="n">
-        <v>2115.870836884378</v>
+        <v>1907.894322025887</v>
       </c>
       <c r="P42" t="n">
-        <v>2357.126603646087</v>
+        <v>2149.150088787596</v>
       </c>
       <c r="Q42" t="n">
         <v>2468.48049822852</v>
@@ -7517,25 +7517,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957454</v>
+        <v>2426.746110912452</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W42" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.81782892870199</v>
+        <v>536.883665828626</v>
       </c>
       <c r="C43" t="n">
-        <v>49.81782892870199</v>
+        <v>367.9474829007191</v>
       </c>
       <c r="D43" t="n">
-        <v>49.81782892870199</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E43" t="n">
-        <v>49.81782892870199</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870199</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G43" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J43" t="n">
         <v>73.44728005477631</v>
@@ -7593,28 +7593,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R43" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T43" t="n">
-        <v>1505.443183112052</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U43" t="n">
-        <v>1216.323397441274</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V43" t="n">
-        <v>961.6389092353869</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W43" t="n">
-        <v>672.2217391984263</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="X43" t="n">
-        <v>444.232188300409</v>
+        <v>614.3346222800598</v>
       </c>
       <c r="Y43" t="n">
-        <v>223.4396091568789</v>
+        <v>536.883665828626</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1641.701072053779</v>
+        <v>1128.512773148286</v>
       </c>
       <c r="C44" t="n">
-        <v>1272.738555113367</v>
+        <v>1128.512773148286</v>
       </c>
       <c r="D44" t="n">
-        <v>914.4728565066168</v>
+        <v>770.247074541536</v>
       </c>
       <c r="E44" t="n">
-        <v>528.6846039083725</v>
+        <v>770.247074541536</v>
       </c>
       <c r="F44" t="n">
-        <v>465.5817675806785</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G44" t="n">
-        <v>49.81782892870199</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819835</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549152</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M44" t="n">
         <v>1187.397991240659</v>
@@ -7675,25 +7675,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S44" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T44" t="n">
-        <v>2281.886707923822</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U44" t="n">
-        <v>2028.300912117901</v>
+        <v>1905.25194518822</v>
       </c>
       <c r="V44" t="n">
-        <v>2028.300912117901</v>
+        <v>1905.25194518822</v>
       </c>
       <c r="W44" t="n">
-        <v>2028.300912117901</v>
+        <v>1905.25194518822</v>
       </c>
       <c r="X44" t="n">
-        <v>2028.300912117901</v>
+        <v>1905.25194518822</v>
       </c>
       <c r="Y44" t="n">
-        <v>2028.300912117901</v>
+        <v>1515.112613212408</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416497</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605228</v>
       </c>
       <c r="D45" t="n">
         <v>607.9156082542706</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F45" t="n">
         <v>302.1435952757001</v>
@@ -7721,28 +7721,28 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H45" t="n">
-        <v>71.33540390088821</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J45" t="n">
-        <v>141.5150087964427</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>583.0451988570709</v>
+        <v>583.0451988570704</v>
       </c>
       <c r="L45" t="n">
-        <v>871.0094820397335</v>
+        <v>871.009482039733</v>
       </c>
       <c r="M45" t="n">
         <v>1226.407086288405</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.61965251871</v>
+        <v>1605.619652518709</v>
       </c>
       <c r="O45" t="n">
-        <v>1930.305270232467</v>
+        <v>1930.305270232466</v>
       </c>
       <c r="P45" t="n">
         <v>2171.561036994176</v>
@@ -7754,25 +7754,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.4714025375973</v>
+        <v>368.8706512689446</v>
       </c>
       <c r="C46" t="n">
-        <v>156.4714025375973</v>
+        <v>199.9344683410377</v>
       </c>
       <c r="D46" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="E46" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="F46" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="G46" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H46" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J46" t="n">
         <v>73.44728005477631</v>
@@ -7833,25 +7833,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S46" t="n">
-        <v>1609.220368204927</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T46" t="n">
-        <v>1399.33086217948</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U46" t="n">
-        <v>1110.211076508702</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V46" t="n">
-        <v>855.5265883028151</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="W46" t="n">
-        <v>566.1094182658544</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="X46" t="n">
-        <v>338.119867367837</v>
+        <v>771.3116952427144</v>
       </c>
       <c r="Y46" t="n">
-        <v>338.119867367837</v>
+        <v>550.5191160991843</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>148.3421391932291</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>170.9794606140154</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>141.376882933316</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>118.7395615125288</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>239.6798654165477</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>239.679865416548</v>
+        <v>188.6850150503362</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>34.75330911708949</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>118.7395615125293</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>244.8305968529382</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.177264930046988</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>72.89368480302835</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>315.5762314807231</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>221.2358239962574</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>72.8936848030296</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>72.89368480302818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>81.05388896083622</v>
       </c>
       <c r="L27" t="n">
-        <v>350.2592227712699</v>
+        <v>350.25922277127</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>229.7822457220316</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>72.89368480302841</v>
+        <v>72.89368480302943</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>17.17015012962227</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>51.50141211751549</v>
       </c>
       <c r="M30" t="n">
-        <v>282.1447570480285</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>258.0892398948637</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>72.89368480302943</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>72.89368480302829</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>350.2592227712699</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>207.1449243012443</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>221.2358239962574</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>166.0476936295486</v>
+        <v>148.3421391932283</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>148.3421391932274</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>141.3768829333162</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>148.3421391932274</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>244.8305968529377</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>32.60525894184511</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140144</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>340.6465014090021</v>
+        <v>162.7661840681319</v>
       </c>
     </row>
     <row r="12">
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>71.44310047544725</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>71.44310047544823</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>17.62630990701138</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>179.5904862923121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>393.3916380654008</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.15066934798855</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>71.44310047544869</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>71.44310047544816</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.26056624198179</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
         <v>220.8610019386828</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>179.5904862923116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>179.4350092097399</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>304.1248120793014</v>
       </c>
     </row>
     <row r="18">
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>71.44310047544818</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>71.44310047544766</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>106.5056075638601</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>71.53988892818094</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>10.24322777915899</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>301.6186538912489</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>5.637043747095674</v>
       </c>
       <c r="T20" t="n">
         <v>206.9146911261644</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>71.4431004754482</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>71.44310047544818</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>21.68789395989039</v>
       </c>
       <c r="G22" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>120.2111169306225</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>27.39130855533043</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>281.945666803199</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>76.27979700609376</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2285878140705</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>245.34772852413</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>201.2344469838729</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>228.8748191297465</v>
       </c>
       <c r="I26" t="n">
         <v>67.96895394968163</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>206.9146911261644</v>
@@ -24505,7 +24505,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>56.06550043334384</v>
+        <v>7.942760097463605</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
-        <v>24.96354888647028</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
         <v>67.96895394968163</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>312.7600751587453</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>51.47371040126538</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>76.71938350352058</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.485201092913</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>184.7276090062883</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
@@ -24970,7 +24970,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
-        <v>206.9146911261644</v>
+        <v>57.9243053968155</v>
       </c>
       <c r="U32" t="n">
         <v>251.0499378478622</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>81.27467346343495</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>147.485201092913</v>
@@ -25125,16 +25125,16 @@
         <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>149.6350083642144</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
-        <v>301.6186538912489</v>
+        <v>269.0325711685317</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>28.78924586458024</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>71.44310047544816</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>71.44310047544863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.808469323602651</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>91.94373627698369</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>108.3113897749855</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>346.254758979734</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>50.14070125298476</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>71.44310047544863</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>90.01871925102654</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
         <v>147.485201092913</v>
@@ -25599,25 +25599,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.4098950016564</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.6186538912489</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>146.2364886974875</v>
+        <v>200.50044060407</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>71.44310047544869</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.946417756042138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>147.485201092913</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>141.9082064651754</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>344.4042377772943</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>67.96895394968163</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>2.969005711316584</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>71.44310047544916</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>71.44310047544863</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>13.07039097349102</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>98.39018414285206</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>636335.8421128424</v>
+        <v>636335.8421128422</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636335.8421128424</v>
+        <v>636335.8421128421</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>648827.0136456848</v>
+        <v>648827.0136456849</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>648827.0136456847</v>
+        <v>648827.0136456848</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>648827.0136456848</v>
+        <v>648827.0136456847</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>648827.0136456847</v>
+        <v>648827.0136456848</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>636335.8421128421</v>
+        <v>636335.8421128422</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>636335.8421128421</v>
+        <v>636335.8421128422</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698524</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698529</v>
       </c>
       <c r="E2" t="n">
-        <v>436708.6382972323</v>
+        <v>436708.638297232</v>
       </c>
       <c r="F2" t="n">
         <v>436708.638297232</v>
       </c>
       <c r="G2" t="n">
-        <v>436708.6382972321</v>
+        <v>436708.638297232</v>
       </c>
       <c r="H2" t="n">
-        <v>436708.6382972318</v>
+        <v>436708.6382972322</v>
       </c>
       <c r="I2" t="n">
+        <v>443027.7805342858</v>
+      </c>
+      <c r="J2" t="n">
         <v>443027.7805342856</v>
-      </c>
-      <c r="J2" t="n">
-        <v>443027.7805342857</v>
       </c>
       <c r="K2" t="n">
         <v>443027.7805342856</v>
       </c>
       <c r="L2" t="n">
-        <v>443027.7805342856</v>
+        <v>443027.7805342858</v>
       </c>
       <c r="M2" t="n">
+        <v>436708.6382972322</v>
+      </c>
+      <c r="N2" t="n">
+        <v>436708.6382972321</v>
+      </c>
+      <c r="O2" t="n">
+        <v>436708.6382972321</v>
+      </c>
+      <c r="P2" t="n">
         <v>436708.638297232</v>
-      </c>
-      <c r="N2" t="n">
-        <v>436708.6382972322</v>
-      </c>
-      <c r="O2" t="n">
-        <v>436708.638297232</v>
-      </c>
-      <c r="P2" t="n">
-        <v>436708.6382972322</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761241</v>
+        <v>924651.579376124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648227</v>
+        <v>4895.439270648257</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>19428.11537840986</v>
+        <v>19428.11537840985</v>
       </c>
       <c r="F4" t="n">
         <v>19428.11537840984</v>
@@ -26438,25 +26438,25 @@
         <v>19428.11537840985</v>
       </c>
       <c r="I4" t="n">
-        <v>22998.66674111659</v>
+        <v>22998.66674111663</v>
       </c>
       <c r="J4" t="n">
-        <v>22998.66674111658</v>
+        <v>22998.66674111663</v>
       </c>
       <c r="K4" t="n">
-        <v>22998.66674111659</v>
+        <v>22998.66674111663</v>
       </c>
       <c r="L4" t="n">
-        <v>22998.66674111658</v>
+        <v>22998.66674111663</v>
       </c>
       <c r="M4" t="n">
-        <v>19428.11537840984</v>
+        <v>19428.11537840985</v>
       </c>
       <c r="N4" t="n">
-        <v>19428.11537840984</v>
+        <v>19428.11537840983</v>
       </c>
       <c r="O4" t="n">
-        <v>19428.11537840984</v>
+        <v>19428.11537840983</v>
       </c>
       <c r="P4" t="n">
         <v>19428.11537840984</v>
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="H5" t="n">
         <v>57906.41050425674</v>
@@ -26502,16 +26502,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425672</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129449.2361271768</v>
+        <v>129405.1003484956</v>
       </c>
       <c r="C6" t="n">
-        <v>129449.2361271765</v>
+        <v>129405.1003484955</v>
       </c>
       <c r="D6" t="n">
-        <v>129449.2361271766</v>
+        <v>129405.1003484959</v>
       </c>
       <c r="E6" t="n">
-        <v>-565277.4669615584</v>
+        <v>-570744.5926461921</v>
       </c>
       <c r="F6" t="n">
-        <v>359374.1124145655</v>
+        <v>353906.9867299319</v>
       </c>
       <c r="G6" t="n">
-        <v>359374.1124145655</v>
+        <v>353906.9867299318</v>
       </c>
       <c r="H6" t="n">
-        <v>359374.1124145652</v>
+        <v>353906.986729932</v>
       </c>
       <c r="I6" t="n">
-        <v>356107.9740499824</v>
+        <v>350858.7498217992</v>
       </c>
       <c r="J6" t="n">
-        <v>361003.4133206308</v>
+        <v>355754.1890924472</v>
       </c>
       <c r="K6" t="n">
-        <v>361003.4133206307</v>
+        <v>355754.1890924472</v>
       </c>
       <c r="L6" t="n">
-        <v>361003.4133206307</v>
+        <v>355754.1890924473</v>
       </c>
       <c r="M6" t="n">
-        <v>208776.7741677065</v>
+        <v>203309.648483073</v>
       </c>
       <c r="N6" t="n">
-        <v>359374.1124145656</v>
+        <v>353906.986729932</v>
       </c>
       <c r="O6" t="n">
-        <v>359374.1124145655</v>
+        <v>353906.986729932</v>
       </c>
       <c r="P6" t="n">
-        <v>359374.1124145656</v>
+        <v>353906.9867299319</v>
       </c>
     </row>
   </sheetData>
@@ -26746,28 +26746,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="G3" t="n">
         <v>919.4890146074873</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="M3" t="n">
         <v>919.4890146074873</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="F4" t="n">
+        <v>622.7228616087748</v>
+      </c>
+      <c r="G4" t="n">
         <v>622.7228616087749</v>
-      </c>
-      <c r="G4" t="n">
-        <v>622.722861608775</v>
       </c>
       <c r="H4" t="n">
         <v>622.7228616087749</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="L4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087747</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831584</v>
+        <v>18.40937447831595</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304591</v>
+        <v>604.3134871304592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H11" t="n">
         <v>37.85614822451829</v>
@@ -31761,40 +31761,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P11" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R11" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
         <v>186.8557817326405</v>
@@ -31849,13 +31849,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N12" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P12" t="n">
         <v>377.6671011130263</v>
@@ -31870,7 +31870,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153591</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U12" t="n">
         <v>0.1301163699916256</v>
@@ -31916,7 +31916,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
@@ -31925,7 +31925,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M13" t="n">
         <v>259.9139193258508</v>
@@ -31937,7 +31937,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q13" t="n">
         <v>138.8428412057306</v>
@@ -31946,13 +31946,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598671</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H14" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L14" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R14" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,31 +32071,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J15" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L15" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q15" t="n">
         <v>252.4604554824181</v>
@@ -32104,13 +32104,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H16" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K16" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L16" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M16" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q16" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H20" t="n">
         <v>37.85614822451829</v>
@@ -32472,40 +32472,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J20" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K20" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L20" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M20" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O20" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P20" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q20" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R20" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T20" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H21" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I21" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J21" t="n">
         <v>186.8557817326405</v>
@@ -32560,13 +32560,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N21" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O21" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P21" t="n">
         <v>377.6671011130263</v>
@@ -32581,7 +32581,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.971796268153591</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U21" t="n">
         <v>0.1301163699916256</v>
@@ -32627,7 +32627,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J22" t="n">
         <v>117.2273125672529</v>
@@ -32636,7 +32636,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L22" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M22" t="n">
         <v>259.9139193258508</v>
@@ -32648,7 +32648,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P22" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q22" t="n">
         <v>138.8428412057306</v>
@@ -32657,13 +32657,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S22" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598671</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H23" t="n">
         <v>37.85614822451829</v>
@@ -32709,40 +32709,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J23" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K23" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L23" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M23" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P23" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q23" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R23" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T23" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H24" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I24" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J24" t="n">
         <v>186.8557817326405</v>
@@ -32797,13 +32797,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N24" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O24" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P24" t="n">
         <v>377.6671011130263</v>
@@ -32818,7 +32818,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.971796268153591</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U24" t="n">
         <v>0.1301163699916256</v>
@@ -32864,7 +32864,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J25" t="n">
         <v>117.2273125672529</v>
@@ -32873,7 +32873,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L25" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M25" t="n">
         <v>259.9139193258508</v>
@@ -32885,7 +32885,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P25" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q25" t="n">
         <v>138.8428412057306</v>
@@ -32894,13 +32894,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S25" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598671</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H26" t="n">
         <v>37.85614822451829</v>
@@ -32946,40 +32946,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J26" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K26" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L26" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M26" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P26" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q26" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R26" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T26" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H27" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I27" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J27" t="n">
         <v>186.8557817326405</v>
@@ -33034,13 +33034,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N27" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O27" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P27" t="n">
         <v>377.6671011130263</v>
@@ -33055,7 +33055,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.971796268153591</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U27" t="n">
         <v>0.1301163699916256</v>
@@ -33101,7 +33101,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J28" t="n">
         <v>117.2273125672529</v>
@@ -33110,7 +33110,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L28" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M28" t="n">
         <v>259.9139193258508</v>
@@ -33122,7 +33122,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P28" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q28" t="n">
         <v>138.8428412057306</v>
@@ -33131,13 +33131,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S28" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598671</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H29" t="n">
         <v>37.85614822451829</v>
@@ -33183,40 +33183,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J29" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K29" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L29" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M29" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P29" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R29" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T29" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H30" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I30" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J30" t="n">
         <v>186.8557817326405</v>
@@ -33271,13 +33271,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N30" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O30" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P30" t="n">
         <v>377.6671011130263</v>
@@ -33292,7 +33292,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.971796268153591</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U30" t="n">
         <v>0.1301163699916256</v>
@@ -33338,7 +33338,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J31" t="n">
         <v>117.2273125672529</v>
@@ -33347,7 +33347,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L31" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M31" t="n">
         <v>259.9139193258508</v>
@@ -33359,7 +33359,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P31" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q31" t="n">
         <v>138.8428412057306</v>
@@ -33368,13 +33368,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S31" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598671</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H32" t="n">
         <v>37.85614822451829</v>
@@ -33420,40 +33420,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J32" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K32" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L32" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M32" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P32" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R32" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T32" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H33" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I33" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J33" t="n">
         <v>186.8557817326405</v>
@@ -33508,13 +33508,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N33" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O33" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P33" t="n">
         <v>377.6671011130263</v>
@@ -33529,7 +33529,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.971796268153591</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U33" t="n">
         <v>0.1301163699916256</v>
@@ -33575,7 +33575,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J34" t="n">
         <v>117.2273125672529</v>
@@ -33584,7 +33584,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L34" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M34" t="n">
         <v>259.9139193258508</v>
@@ -33596,7 +33596,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P34" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q34" t="n">
         <v>138.8428412057306</v>
@@ -33605,13 +33605,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S34" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598671</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936373</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
         <v>470.2008070025213</v>
@@ -35412,28 +35412,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P11" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>329.866993150982</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L12" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N12" t="n">
         <v>383.0429961922271</v>
@@ -35506,13 +35506,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>243.6926936986961</v>
+        <v>414.6721543127114</v>
       </c>
       <c r="Q12" t="n">
         <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
@@ -35579,13 +35579,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
         <v>52.68079795403621</v>
@@ -35649,28 +35649,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O14" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K15" t="n">
-        <v>181.524853957753</v>
+        <v>322.901736891069</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M15" t="n">
-        <v>477.7270405515912</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N15" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P15" t="n">
         <v>243.6926936986961</v>
@@ -35749,7 +35749,7 @@
         <v>112.4786813963966</v>
       </c>
       <c r="R15" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
@@ -35813,19 +35813,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N16" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O16" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>358.9874790390622</v>
       </c>
       <c r="N18" t="n">
-        <v>622.722861608775</v>
+        <v>571.7280112425633</v>
       </c>
       <c r="O18" t="n">
         <v>327.9652704179364</v>
       </c>
       <c r="P18" t="n">
-        <v>278.4460028157856</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R18" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L20" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O20" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P20" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722559</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>181.524853957753</v>
+        <v>300.2644154702823</v>
       </c>
       <c r="L21" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N21" t="n">
         <v>622.7228616087749</v>
@@ -36217,13 +36217,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P21" t="n">
-        <v>488.5232905516343</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
         <v>112.4786813963966</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63732142078703</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
@@ -36290,13 +36290,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N22" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O22" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P22" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q22" t="n">
         <v>52.68079795403621</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969978</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L23" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M23" t="n">
-        <v>491.6096643845877</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O23" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P23" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722501</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L24" t="n">
-        <v>606.4492447965439</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N24" t="n">
         <v>383.0429961922271</v>
       </c>
       <c r="O24" t="n">
-        <v>327.9652704179364</v>
+        <v>549.2010944141938</v>
       </c>
       <c r="P24" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
@@ -36527,13 +36527,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N25" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O25" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P25" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q25" t="n">
         <v>52.68079795403621</v>
@@ -36597,28 +36597,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K26" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815594</v>
+        <v>491.6096643845889</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O26" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P26" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q26" t="n">
-        <v>249.7617409635307</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>181.524853957753</v>
+        <v>262.5787429185892</v>
       </c>
       <c r="L27" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870909</v>
       </c>
       <c r="M27" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N27" t="n">
         <v>383.0429961922271</v>
@@ -36691,13 +36691,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
-        <v>473.4749394207277</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
         <v>112.4786813963966</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
@@ -36764,13 +36764,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N28" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O28" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P28" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q28" t="n">
         <v>52.68079795403621</v>
@@ -36834,28 +36834,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M29" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N29" t="n">
-        <v>503.0453391921682</v>
+        <v>503.0453391921691</v>
       </c>
       <c r="O29" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P29" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>77.18830519559606</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K30" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158208</v>
+        <v>342.3744254333363</v>
       </c>
       <c r="M30" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N30" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O30" t="n">
         <v>327.9652704179364</v>
       </c>
       <c r="P30" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
-        <v>22.63732142078703</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
@@ -37001,13 +37001,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N31" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O31" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P31" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q31" t="n">
         <v>52.68079795403621</v>
@@ -37071,28 +37071,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891398</v>
+        <v>503.0453391921691</v>
       </c>
       <c r="O32" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P32" t="n">
-        <v>373.2131298993163</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L33" t="n">
-        <v>641.1322360870907</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M33" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N33" t="n">
         <v>383.0429961922271</v>
       </c>
       <c r="O33" t="n">
-        <v>535.1101947191808</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P33" t="n">
-        <v>243.6926936986961</v>
+        <v>464.9285176949535</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R33" t="n">
-        <v>22.63732142078703</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
@@ -37238,13 +37238,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N34" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O34" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P34" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q34" t="n">
         <v>52.68079795403621</v>
@@ -37314,7 +37314,7 @@
         <v>347.5592641161276</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815596</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N35" t="n">
         <v>430.1516543891397</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>347.5725475873015</v>
+        <v>329.8669931509812</v>
       </c>
       <c r="L36" t="n">
         <v>290.8730133158208</v>
@@ -37402,10 +37402,10 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P36" t="n">
-        <v>562.1554623386332</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R36" t="n">
         <v>22.63732142078702</v>
@@ -37551,7 +37551,7 @@
         <v>347.5592641161276</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815596</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N38" t="n">
         <v>430.1516543891397</v>
@@ -37566,7 +37566,7 @@
         <v>176.8680561605024</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722467</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K39" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509803</v>
       </c>
       <c r="L39" t="n">
         <v>290.8730133158208</v>
@@ -37633,7 +37633,7 @@
         <v>358.9874790390622</v>
       </c>
       <c r="N39" t="n">
-        <v>622.7228616087748</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O39" t="n">
         <v>327.9652704179364</v>
@@ -37642,10 +37642,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q39" t="n">
-        <v>253.8555643297128</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K42" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509803</v>
       </c>
       <c r="L42" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M42" t="n">
-        <v>603.8180758919999</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N42" t="n">
-        <v>622.7228616087748</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O42" t="n">
         <v>327.9652704179364</v>
@@ -37879,7 +37879,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R42" t="n">
         <v>22.63732142078702</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.684671366951</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K44" t="n">
         <v>250.1109559575407</v>
@@ -38037,7 +38037,7 @@
         <v>300.319445096288</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605021</v>
       </c>
       <c r="R44" t="n">
         <v>16.61085138722498</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>92.62341400781887</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K45" t="n">
-        <v>445.9900909703316</v>
+        <v>352.5043145717674</v>
       </c>
       <c r="L45" t="n">
         <v>290.8730133158208</v>
